--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Fomesafen/Fomesafen_Absolute ED_Multiple Comparisons/Data Sheet_Fome_GC.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Fomesafen/Fomesafen_Absolute ED_Multiple Comparisons/Data Sheet_Fome_GC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Fomesafen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Fomesafen/Fomesafen_Absolute ED_Multiple Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="13_ncr:1_{0D6DC71D-8738-4BAC-A91A-7810A9452D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA5DABAA-6B8B-4A57-A9DD-C6E54ED05BE4}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{0D6DC71D-8738-4BAC-A91A-7810A9452D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B174AE-3F75-4B80-AE5C-084E91902BA3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>elevated</t>
-  </si>
-  <si>
     <t>ambient</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>treat</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -215,10 +215,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -581,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -602,7 +598,7 @@
       </c>
       <c r="F2" s="3" t="str">
         <f>_xlfn.CONCAT(D2, "+", E2, "+", I2)</f>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -611,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -644,7 +640,7 @@
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(D3, "+", E3, "+", I3)</f>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -653,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
@@ -686,7 +682,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -695,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
@@ -728,7 +724,7 @@
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
@@ -737,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>4</v>
@@ -770,7 +766,7 @@
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>18</v>
@@ -779,7 +775,7 @@
         <v>4.12</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -812,7 +808,7 @@
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>18</v>
@@ -821,7 +817,7 @@
         <v>4.12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3">
         <v>2</v>
@@ -854,7 +850,7 @@
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>18</v>
@@ -863,7 +859,7 @@
         <v>4.12</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -896,7 +892,7 @@
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>18</v>
@@ -905,7 +901,7 @@
         <v>4.12</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3">
         <v>4</v>
@@ -938,7 +934,7 @@
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
@@ -947,7 +943,7 @@
         <v>8.23</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -980,7 +976,7 @@
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>19</v>
@@ -989,7 +985,7 @@
         <v>8.23</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3">
         <v>2</v>
@@ -1022,7 +1018,7 @@
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
@@ -1031,7 +1027,7 @@
         <v>8.23</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -1064,7 +1060,7 @@
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>19</v>
@@ -1073,7 +1069,7 @@
         <v>8.23</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -1106,7 +1102,7 @@
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
@@ -1115,7 +1111,7 @@
         <v>16.46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -1148,7 +1144,7 @@
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
@@ -1157,7 +1153,7 @@
         <v>16.46</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
         <v>2</v>
@@ -1190,7 +1186,7 @@
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
@@ -1199,7 +1195,7 @@
         <v>16.46</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3">
         <v>3</v>
@@ -1232,7 +1228,7 @@
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
@@ -1241,7 +1237,7 @@
         <v>16.46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -1274,7 +1270,7 @@
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>9</v>
@@ -1283,7 +1279,7 @@
         <v>32.93</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
@@ -1316,7 +1312,7 @@
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>9</v>
@@ -1325,7 +1321,7 @@
         <v>32.93</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3">
         <v>2</v>
@@ -1358,7 +1354,7 @@
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>9</v>
@@ -1367,7 +1363,7 @@
         <v>32.93</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3">
         <v>3</v>
@@ -1400,7 +1396,7 @@
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>9</v>
@@ -1409,7 +1405,7 @@
         <v>32.93</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3">
         <v>4</v>
@@ -1442,7 +1438,7 @@
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>10</v>
@@ -1451,7 +1447,7 @@
         <v>65.86</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
@@ -1484,7 +1480,7 @@
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>10</v>
@@ -1493,7 +1489,7 @@
         <v>65.86</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3">
         <v>2</v>
@@ -1526,7 +1522,7 @@
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>10</v>
@@ -1535,7 +1531,7 @@
         <v>65.86</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3">
         <v>3</v>
@@ -1568,7 +1564,7 @@
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -1577,7 +1573,7 @@
         <v>65.86</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J25" s="3">
         <v>4</v>
@@ -1610,7 +1606,7 @@
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>11</v>
@@ -1619,7 +1615,7 @@
         <v>131.72</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
@@ -1652,7 +1648,7 @@
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>11</v>
@@ -1661,7 +1657,7 @@
         <v>131.72</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J27" s="3">
         <v>2</v>
@@ -1694,7 +1690,7 @@
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
@@ -1703,7 +1699,7 @@
         <v>131.72</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J28" s="3">
         <v>3</v>
@@ -1736,7 +1732,7 @@
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -1745,7 +1741,7 @@
         <v>131.72</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J29" s="3">
         <v>4</v>
@@ -1778,7 +1774,7 @@
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
@@ -1787,7 +1783,7 @@
         <v>263.43</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
@@ -1820,7 +1816,7 @@
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>12</v>
@@ -1829,7 +1825,7 @@
         <v>263.43</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J31" s="3">
         <v>2</v>
@@ -1862,7 +1858,7 @@
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
@@ -1871,7 +1867,7 @@
         <v>263.43</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J32" s="3">
         <v>3</v>
@@ -1904,7 +1900,7 @@
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
@@ -1913,7 +1909,7 @@
         <v>263.43</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
         <v>4</v>
@@ -1946,7 +1942,7 @@
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>13</v>
@@ -1955,7 +1951,7 @@
         <v>526.86</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
@@ -1988,7 +1984,7 @@
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>13</v>
@@ -1997,7 +1993,7 @@
         <v>526.86</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J35" s="3">
         <v>2</v>
@@ -2030,7 +2026,7 @@
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>13</v>
@@ -2039,7 +2035,7 @@
         <v>526.86</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J36" s="3">
         <v>3</v>
@@ -2072,7 +2068,7 @@
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>13</v>
@@ -2081,7 +2077,7 @@
         <v>526.86</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J37" s="3">
         <v>4</v>
@@ -2114,7 +2110,7 @@
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>14</v>
@@ -2123,7 +2119,7 @@
         <v>1053.73</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
@@ -2156,7 +2152,7 @@
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>14</v>
@@ -2165,7 +2161,7 @@
         <v>1053.73</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3">
         <v>2</v>
@@ -2198,7 +2194,7 @@
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>14</v>
@@ -2207,7 +2203,7 @@
         <v>1053.73</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J40" s="3">
         <v>3</v>
@@ -2240,7 +2236,7 @@
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>14</v>
@@ -2249,7 +2245,7 @@
         <v>1053.73</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J41" s="3">
         <v>4</v>
@@ -2291,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
@@ -2333,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" s="3">
         <v>2</v>
@@ -2375,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="3">
         <v>3</v>
@@ -2417,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J45" s="3">
         <v>4</v>
@@ -2459,7 +2455,7 @@
         <v>4.12</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
@@ -2501,7 +2497,7 @@
         <v>4.12</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="3">
         <v>2</v>
@@ -2543,7 +2539,7 @@
         <v>4.12</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="3">
         <v>3</v>
@@ -2585,7 +2581,7 @@
         <v>4.12</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" s="3">
         <v>4</v>
@@ -2627,7 +2623,7 @@
         <v>8.23</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
@@ -2669,7 +2665,7 @@
         <v>8.23</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="3">
         <v>2</v>
@@ -2711,7 +2707,7 @@
         <v>8.23</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="3">
         <v>3</v>
@@ -2753,7 +2749,7 @@
         <v>8.23</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J53" s="3">
         <v>4</v>
@@ -2795,7 +2791,7 @@
         <v>16.46</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -2837,7 +2833,7 @@
         <v>16.46</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J55" s="3">
         <v>2</v>
@@ -2879,7 +2875,7 @@
         <v>16.46</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J56" s="3">
         <v>3</v>
@@ -2921,7 +2917,7 @@
         <v>16.46</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J57" s="3">
         <v>4</v>
@@ -2963,7 +2959,7 @@
         <v>32.93</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
@@ -3005,7 +3001,7 @@
         <v>32.93</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J59" s="3">
         <v>2</v>
@@ -3047,7 +3043,7 @@
         <v>32.93</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" s="3">
         <v>3</v>
@@ -3089,7 +3085,7 @@
         <v>32.93</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J61" s="3">
         <v>4</v>
@@ -3131,7 +3127,7 @@
         <v>65.86</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
@@ -3173,7 +3169,7 @@
         <v>65.86</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J63" s="3">
         <v>2</v>
@@ -3215,7 +3211,7 @@
         <v>65.86</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J64" s="3">
         <v>3</v>
@@ -3257,7 +3253,7 @@
         <v>65.86</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J65" s="3">
         <v>4</v>
@@ -3299,7 +3295,7 @@
         <v>131.72</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
@@ -3341,7 +3337,7 @@
         <v>131.72</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J67" s="3">
         <v>2</v>
@@ -3383,7 +3379,7 @@
         <v>131.72</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" s="3">
         <v>3</v>
@@ -3425,7 +3421,7 @@
         <v>131.72</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" s="3">
         <v>4</v>
@@ -3467,7 +3463,7 @@
         <v>263.43</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
@@ -3509,7 +3505,7 @@
         <v>263.43</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J71" s="3">
         <v>2</v>
@@ -3551,7 +3547,7 @@
         <v>263.43</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J72" s="3">
         <v>3</v>
@@ -3593,7 +3589,7 @@
         <v>263.43</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J73" s="3">
         <v>4</v>
@@ -3635,7 +3631,7 @@
         <v>526.86</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
@@ -3677,7 +3673,7 @@
         <v>526.86</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J75" s="3">
         <v>2</v>
@@ -3719,7 +3715,7 @@
         <v>526.86</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J76" s="3">
         <v>3</v>
@@ -3761,7 +3757,7 @@
         <v>526.86</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J77" s="3">
         <v>4</v>
@@ -3803,7 +3799,7 @@
         <v>1053.73</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J78" s="3">
         <v>1</v>
@@ -3845,7 +3841,7 @@
         <v>1053.73</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J79" s="3">
         <v>2</v>
@@ -3887,7 +3883,7 @@
         <v>1053.73</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J80" s="3">
         <v>3</v>
@@ -3929,7 +3925,7 @@
         <v>1053.73</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J81" s="3">
         <v>4</v>
@@ -3962,7 +3958,7 @@
       </c>
       <c r="F82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>8</v>
@@ -3971,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J82" s="3">
         <v>1</v>
@@ -4004,7 +4000,7 @@
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -4013,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J83" s="3">
         <v>2</v>
@@ -4046,7 +4042,7 @@
       </c>
       <c r="F84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>8</v>
@@ -4055,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J84" s="3">
         <v>3</v>
@@ -4088,7 +4084,7 @@
       </c>
       <c r="F85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>8</v>
@@ -4097,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J85" s="3">
         <v>4</v>
@@ -4130,7 +4126,7 @@
       </c>
       <c r="F86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>18</v>
@@ -4139,7 +4135,7 @@
         <v>4.12</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J86" s="3">
         <v>1</v>
@@ -4172,7 +4168,7 @@
       </c>
       <c r="F87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>18</v>
@@ -4181,7 +4177,7 @@
         <v>4.12</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J87" s="3">
         <v>2</v>
@@ -4214,7 +4210,7 @@
       </c>
       <c r="F88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>18</v>
@@ -4223,7 +4219,7 @@
         <v>4.12</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J88" s="3">
         <v>3</v>
@@ -4256,7 +4252,7 @@
       </c>
       <c r="F89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>18</v>
@@ -4265,7 +4261,7 @@
         <v>4.12</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J89" s="3">
         <v>4</v>
@@ -4298,7 +4294,7 @@
       </c>
       <c r="F90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>19</v>
@@ -4307,7 +4303,7 @@
         <v>8.23</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J90" s="3">
         <v>1</v>
@@ -4340,7 +4336,7 @@
       </c>
       <c r="F91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>19</v>
@@ -4349,7 +4345,7 @@
         <v>8.23</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J91" s="3">
         <v>2</v>
@@ -4382,7 +4378,7 @@
       </c>
       <c r="F92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>19</v>
@@ -4391,7 +4387,7 @@
         <v>8.23</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J92" s="3">
         <v>3</v>
@@ -4424,7 +4420,7 @@
       </c>
       <c r="F93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>19</v>
@@ -4433,7 +4429,7 @@
         <v>8.23</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J93" s="3">
         <v>4</v>
@@ -4466,7 +4462,7 @@
       </c>
       <c r="F94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>20</v>
@@ -4475,7 +4471,7 @@
         <v>16.46</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J94" s="3">
         <v>1</v>
@@ -4508,7 +4504,7 @@
       </c>
       <c r="F95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>20</v>
@@ -4517,7 +4513,7 @@
         <v>16.46</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J95" s="3">
         <v>2</v>
@@ -4550,7 +4546,7 @@
       </c>
       <c r="F96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>20</v>
@@ -4559,7 +4555,7 @@
         <v>16.46</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J96" s="3">
         <v>3</v>
@@ -4592,7 +4588,7 @@
       </c>
       <c r="F97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>20</v>
@@ -4601,7 +4597,7 @@
         <v>16.46</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J97" s="3">
         <v>4</v>
@@ -4634,7 +4630,7 @@
       </c>
       <c r="F98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>9</v>
@@ -4643,7 +4639,7 @@
         <v>32.93</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J98" s="3">
         <v>1</v>
@@ -4676,7 +4672,7 @@
       </c>
       <c r="F99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>9</v>
@@ -4685,7 +4681,7 @@
         <v>32.93</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J99" s="3">
         <v>2</v>
@@ -4718,7 +4714,7 @@
       </c>
       <c r="F100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>9</v>
@@ -4727,7 +4723,7 @@
         <v>32.93</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J100" s="3">
         <v>3</v>
@@ -4760,7 +4756,7 @@
       </c>
       <c r="F101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>9</v>
@@ -4769,7 +4765,7 @@
         <v>32.93</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J101" s="3">
         <v>4</v>
@@ -4802,7 +4798,7 @@
       </c>
       <c r="F102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>10</v>
@@ -4811,7 +4807,7 @@
         <v>65.86</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J102" s="3">
         <v>1</v>
@@ -4844,7 +4840,7 @@
       </c>
       <c r="F103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>10</v>
@@ -4853,7 +4849,7 @@
         <v>65.86</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J103" s="3">
         <v>2</v>
@@ -4886,7 +4882,7 @@
       </c>
       <c r="F104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>10</v>
@@ -4895,7 +4891,7 @@
         <v>65.86</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J104" s="3">
         <v>3</v>
@@ -4928,7 +4924,7 @@
       </c>
       <c r="F105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>10</v>
@@ -4937,7 +4933,7 @@
         <v>65.86</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J105" s="3">
         <v>4</v>
@@ -4970,7 +4966,7 @@
       </c>
       <c r="F106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>11</v>
@@ -4979,7 +4975,7 @@
         <v>131.72</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J106" s="3">
         <v>1</v>
@@ -5012,7 +5008,7 @@
       </c>
       <c r="F107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>11</v>
@@ -5021,7 +5017,7 @@
         <v>131.72</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J107" s="3">
         <v>2</v>
@@ -5054,7 +5050,7 @@
       </c>
       <c r="F108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>11</v>
@@ -5063,7 +5059,7 @@
         <v>131.72</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J108" s="3">
         <v>3</v>
@@ -5096,7 +5092,7 @@
       </c>
       <c r="F109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>11</v>
@@ -5105,7 +5101,7 @@
         <v>131.72</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J109" s="3">
         <v>4</v>
@@ -5138,7 +5134,7 @@
       </c>
       <c r="F110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>12</v>
@@ -5147,7 +5143,7 @@
         <v>263.43</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J110" s="3">
         <v>1</v>
@@ -5180,7 +5176,7 @@
       </c>
       <c r="F111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>12</v>
@@ -5189,7 +5185,7 @@
         <v>263.43</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J111" s="3">
         <v>2</v>
@@ -5222,7 +5218,7 @@
       </c>
       <c r="F112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>12</v>
@@ -5231,7 +5227,7 @@
         <v>263.43</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J112" s="3">
         <v>3</v>
@@ -5264,7 +5260,7 @@
       </c>
       <c r="F113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>12</v>
@@ -5273,7 +5269,7 @@
         <v>263.43</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J113" s="3">
         <v>4</v>
@@ -5306,7 +5302,7 @@
       </c>
       <c r="F114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>13</v>
@@ -5315,7 +5311,7 @@
         <v>526.86</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
@@ -5348,7 +5344,7 @@
       </c>
       <c r="F115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>13</v>
@@ -5357,7 +5353,7 @@
         <v>526.86</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J115" s="3">
         <v>2</v>
@@ -5390,7 +5386,7 @@
       </c>
       <c r="F116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>13</v>
@@ -5399,7 +5395,7 @@
         <v>526.86</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J116" s="3">
         <v>3</v>
@@ -5432,7 +5428,7 @@
       </c>
       <c r="F117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>13</v>
@@ -5441,7 +5437,7 @@
         <v>526.86</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J117" s="3">
         <v>4</v>
@@ -5474,7 +5470,7 @@
       </c>
       <c r="F118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>14</v>
@@ -5483,7 +5479,7 @@
         <v>1053.73</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J118" s="3">
         <v>1</v>
@@ -5516,7 +5512,7 @@
       </c>
       <c r="F119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>14</v>
@@ -5525,7 +5521,7 @@
         <v>1053.73</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J119" s="3">
         <v>2</v>
@@ -5558,7 +5554,7 @@
       </c>
       <c r="F120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>14</v>
@@ -5567,7 +5563,7 @@
         <v>1053.73</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J120" s="3">
         <v>3</v>
@@ -5600,7 +5596,7 @@
       </c>
       <c r="F121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>14</v>
@@ -5609,7 +5605,7 @@
         <v>1053.73</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J121" s="3">
         <v>4</v>
@@ -5642,7 +5638,7 @@
       </c>
       <c r="F122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>8</v>
@@ -5651,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
@@ -5684,7 +5680,7 @@
       </c>
       <c r="F123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>8</v>
@@ -5693,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J123" s="3">
         <v>2</v>
@@ -5720,7 +5716,7 @@
       </c>
       <c r="F124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>8</v>
@@ -5729,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J124" s="3">
         <v>3</v>
@@ -5762,7 +5758,7 @@
       </c>
       <c r="F125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>8</v>
@@ -5771,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J125" s="3">
         <v>4</v>
@@ -5804,7 +5800,7 @@
       </c>
       <c r="F126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>18</v>
@@ -5813,7 +5809,7 @@
         <v>4.12</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J126" s="3">
         <v>1</v>
@@ -5846,7 +5842,7 @@
       </c>
       <c r="F127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>18</v>
@@ -5855,7 +5851,7 @@
         <v>4.12</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J127" s="3">
         <v>2</v>
@@ -5888,7 +5884,7 @@
       </c>
       <c r="F128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>18</v>
@@ -5897,7 +5893,7 @@
         <v>4.12</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J128" s="3">
         <v>3</v>
@@ -5930,7 +5926,7 @@
       </c>
       <c r="F129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>18</v>
@@ -5939,7 +5935,7 @@
         <v>4.12</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J129" s="3">
         <v>4</v>
@@ -5972,7 +5968,7 @@
       </c>
       <c r="F130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>19</v>
@@ -5981,7 +5977,7 @@
         <v>8.23</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J130" s="3">
         <v>1</v>
@@ -6014,7 +6010,7 @@
       </c>
       <c r="F131" s="3" t="str">
         <f t="shared" ref="F131:F194" si="2">_xlfn.CONCAT(D131, "+", E131, "+", I131)</f>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>19</v>
@@ -6023,7 +6019,7 @@
         <v>8.23</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J131" s="3">
         <v>2</v>
@@ -6056,7 +6052,7 @@
       </c>
       <c r="F132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>19</v>
@@ -6065,7 +6061,7 @@
         <v>8.23</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J132" s="3">
         <v>3</v>
@@ -6098,7 +6094,7 @@
       </c>
       <c r="F133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>19</v>
@@ -6107,7 +6103,7 @@
         <v>8.23</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J133" s="3">
         <v>4</v>
@@ -6140,7 +6136,7 @@
       </c>
       <c r="F134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>20</v>
@@ -6149,7 +6145,7 @@
         <v>16.46</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J134" s="3">
         <v>1</v>
@@ -6182,7 +6178,7 @@
       </c>
       <c r="F135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>20</v>
@@ -6191,7 +6187,7 @@
         <v>16.46</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J135" s="3">
         <v>2</v>
@@ -6224,7 +6220,7 @@
       </c>
       <c r="F136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>20</v>
@@ -6233,7 +6229,7 @@
         <v>16.46</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J136" s="3">
         <v>3</v>
@@ -6266,7 +6262,7 @@
       </c>
       <c r="F137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>20</v>
@@ -6275,7 +6271,7 @@
         <v>16.46</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J137" s="3">
         <v>4</v>
@@ -6308,7 +6304,7 @@
       </c>
       <c r="F138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>9</v>
@@ -6317,7 +6313,7 @@
         <v>32.93</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J138" s="3">
         <v>1</v>
@@ -6350,7 +6346,7 @@
       </c>
       <c r="F139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>9</v>
@@ -6359,7 +6355,7 @@
         <v>32.93</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J139" s="3">
         <v>2</v>
@@ -6392,7 +6388,7 @@
       </c>
       <c r="F140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>9</v>
@@ -6401,7 +6397,7 @@
         <v>32.93</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J140" s="3">
         <v>3</v>
@@ -6434,7 +6430,7 @@
       </c>
       <c r="F141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>9</v>
@@ -6443,7 +6439,7 @@
         <v>32.93</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J141" s="3">
         <v>4</v>
@@ -6476,7 +6472,7 @@
       </c>
       <c r="F142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>10</v>
@@ -6485,7 +6481,7 @@
         <v>65.86</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J142" s="3">
         <v>1</v>
@@ -6518,7 +6514,7 @@
       </c>
       <c r="F143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>10</v>
@@ -6527,7 +6523,7 @@
         <v>65.86</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J143" s="3">
         <v>2</v>
@@ -6560,7 +6556,7 @@
       </c>
       <c r="F144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>10</v>
@@ -6569,7 +6565,7 @@
         <v>65.86</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J144" s="3">
         <v>3</v>
@@ -6602,7 +6598,7 @@
       </c>
       <c r="F145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>10</v>
@@ -6611,7 +6607,7 @@
         <v>65.86</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J145" s="3">
         <v>4</v>
@@ -6644,7 +6640,7 @@
       </c>
       <c r="F146" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>11</v>
@@ -6653,7 +6649,7 @@
         <v>131.72</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J146" s="3">
         <v>1</v>
@@ -6686,7 +6682,7 @@
       </c>
       <c r="F147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>11</v>
@@ -6695,7 +6691,7 @@
         <v>131.72</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J147" s="3">
         <v>2</v>
@@ -6728,7 +6724,7 @@
       </c>
       <c r="F148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>11</v>
@@ -6737,7 +6733,7 @@
         <v>131.72</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J148" s="3">
         <v>3</v>
@@ -6770,7 +6766,7 @@
       </c>
       <c r="F149" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>11</v>
@@ -6779,7 +6775,7 @@
         <v>131.72</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J149" s="3">
         <v>4</v>
@@ -6812,7 +6808,7 @@
       </c>
       <c r="F150" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>12</v>
@@ -6821,7 +6817,7 @@
         <v>263.43</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J150" s="3">
         <v>1</v>
@@ -6854,7 +6850,7 @@
       </c>
       <c r="F151" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>12</v>
@@ -6863,7 +6859,7 @@
         <v>263.43</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J151" s="3">
         <v>2</v>
@@ -6896,7 +6892,7 @@
       </c>
       <c r="F152" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>12</v>
@@ -6905,7 +6901,7 @@
         <v>263.43</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J152" s="3">
         <v>3</v>
@@ -6938,7 +6934,7 @@
       </c>
       <c r="F153" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>12</v>
@@ -6947,7 +6943,7 @@
         <v>263.43</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J153" s="3">
         <v>4</v>
@@ -6980,7 +6976,7 @@
       </c>
       <c r="F154" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>13</v>
@@ -6989,7 +6985,7 @@
         <v>526.86</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J154" s="3">
         <v>1</v>
@@ -7022,7 +7018,7 @@
       </c>
       <c r="F155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>13</v>
@@ -7031,7 +7027,7 @@
         <v>526.86</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J155" s="3">
         <v>2</v>
@@ -7064,7 +7060,7 @@
       </c>
       <c r="F156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>13</v>
@@ -7073,7 +7069,7 @@
         <v>526.86</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J156" s="3">
         <v>3</v>
@@ -7106,7 +7102,7 @@
       </c>
       <c r="F157" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>13</v>
@@ -7115,7 +7111,7 @@
         <v>526.86</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J157" s="3">
         <v>4</v>
@@ -7148,7 +7144,7 @@
       </c>
       <c r="F158" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>14</v>
@@ -7157,7 +7153,7 @@
         <v>1053.73</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J158" s="3">
         <v>1</v>
@@ -7190,7 +7186,7 @@
       </c>
       <c r="F159" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>14</v>
@@ -7199,7 +7195,7 @@
         <v>1053.73</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J159" s="3">
         <v>2</v>
@@ -7232,7 +7228,7 @@
       </c>
       <c r="F160" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>14</v>
@@ -7241,7 +7237,7 @@
         <v>1053.73</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J160" s="3">
         <v>3</v>
@@ -7274,7 +7270,7 @@
       </c>
       <c r="F161" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>14</v>
@@ -7283,7 +7279,7 @@
         <v>1053.73</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J161" s="3">
         <v>4</v>
@@ -7316,7 +7312,7 @@
       </c>
       <c r="F162" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>8</v>
@@ -7325,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J162" s="3">
         <v>1</v>
@@ -7358,7 +7354,7 @@
       </c>
       <c r="F163" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>8</v>
@@ -7367,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J163" s="3">
         <v>2</v>
@@ -7400,7 +7396,7 @@
       </c>
       <c r="F164" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>8</v>
@@ -7409,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J164" s="3">
         <v>3</v>
@@ -7442,7 +7438,7 @@
       </c>
       <c r="F165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>8</v>
@@ -7451,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J165" s="3">
         <v>4</v>
@@ -7484,7 +7480,7 @@
       </c>
       <c r="F166" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>18</v>
@@ -7493,7 +7489,7 @@
         <v>4.12</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J166" s="3">
         <v>1</v>
@@ -7526,7 +7522,7 @@
       </c>
       <c r="F167" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>18</v>
@@ -7535,7 +7531,7 @@
         <v>4.12</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J167" s="3">
         <v>2</v>
@@ -7568,7 +7564,7 @@
       </c>
       <c r="F168" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>18</v>
@@ -7577,7 +7573,7 @@
         <v>4.12</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J168" s="3">
         <v>3</v>
@@ -7610,7 +7606,7 @@
       </c>
       <c r="F169" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>18</v>
@@ -7619,7 +7615,7 @@
         <v>4.12</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J169" s="3">
         <v>4</v>
@@ -7652,7 +7648,7 @@
       </c>
       <c r="F170" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>19</v>
@@ -7661,7 +7657,7 @@
         <v>8.23</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J170" s="3">
         <v>1</v>
@@ -7694,7 +7690,7 @@
       </c>
       <c r="F171" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>19</v>
@@ -7703,7 +7699,7 @@
         <v>8.23</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J171" s="3">
         <v>2</v>
@@ -7736,7 +7732,7 @@
       </c>
       <c r="F172" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>19</v>
@@ -7745,7 +7741,7 @@
         <v>8.23</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J172" s="3">
         <v>3</v>
@@ -7778,7 +7774,7 @@
       </c>
       <c r="F173" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>19</v>
@@ -7787,7 +7783,7 @@
         <v>8.23</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J173" s="3">
         <v>4</v>
@@ -7820,7 +7816,7 @@
       </c>
       <c r="F174" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>20</v>
@@ -7829,7 +7825,7 @@
         <v>16.46</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J174" s="3">
         <v>1</v>
@@ -7862,7 +7858,7 @@
       </c>
       <c r="F175" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>20</v>
@@ -7871,7 +7867,7 @@
         <v>16.46</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J175" s="3">
         <v>2</v>
@@ -7904,7 +7900,7 @@
       </c>
       <c r="F176" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>20</v>
@@ -7913,7 +7909,7 @@
         <v>16.46</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J176" s="3">
         <v>3</v>
@@ -7946,7 +7942,7 @@
       </c>
       <c r="F177" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>20</v>
@@ -7955,7 +7951,7 @@
         <v>16.46</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J177" s="3">
         <v>4</v>
@@ -7988,7 +7984,7 @@
       </c>
       <c r="F178" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>9</v>
@@ -7997,7 +7993,7 @@
         <v>32.93</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J178" s="3">
         <v>1</v>
@@ -8030,7 +8026,7 @@
       </c>
       <c r="F179" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>9</v>
@@ -8039,7 +8035,7 @@
         <v>32.93</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J179" s="3">
         <v>2</v>
@@ -8072,7 +8068,7 @@
       </c>
       <c r="F180" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>9</v>
@@ -8081,7 +8077,7 @@
         <v>32.93</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J180" s="3">
         <v>3</v>
@@ -8114,7 +8110,7 @@
       </c>
       <c r="F181" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>9</v>
@@ -8123,7 +8119,7 @@
         <v>32.93</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J181" s="3">
         <v>4</v>
@@ -8156,7 +8152,7 @@
       </c>
       <c r="F182" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>10</v>
@@ -8165,7 +8161,7 @@
         <v>65.86</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J182" s="3">
         <v>1</v>
@@ -8198,7 +8194,7 @@
       </c>
       <c r="F183" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>10</v>
@@ -8207,7 +8203,7 @@
         <v>65.86</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J183" s="3">
         <v>2</v>
@@ -8240,7 +8236,7 @@
       </c>
       <c r="F184" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>10</v>
@@ -8249,7 +8245,7 @@
         <v>65.86</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J184" s="3">
         <v>3</v>
@@ -8282,7 +8278,7 @@
       </c>
       <c r="F185" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>10</v>
@@ -8291,7 +8287,7 @@
         <v>65.86</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J185" s="3">
         <v>4</v>
@@ -8324,7 +8320,7 @@
       </c>
       <c r="F186" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>11</v>
@@ -8333,7 +8329,7 @@
         <v>131.72</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J186" s="3">
         <v>1</v>
@@ -8366,7 +8362,7 @@
       </c>
       <c r="F187" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>11</v>
@@ -8375,7 +8371,7 @@
         <v>131.72</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J187" s="3">
         <v>2</v>
@@ -8408,7 +8404,7 @@
       </c>
       <c r="F188" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>11</v>
@@ -8417,7 +8413,7 @@
         <v>131.72</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J188" s="3">
         <v>3</v>
@@ -8450,7 +8446,7 @@
       </c>
       <c r="F189" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>11</v>
@@ -8459,7 +8455,7 @@
         <v>131.72</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J189" s="3">
         <v>4</v>
@@ -8492,7 +8488,7 @@
       </c>
       <c r="F190" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>12</v>
@@ -8501,7 +8497,7 @@
         <v>263.43</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J190" s="3">
         <v>1</v>
@@ -8534,7 +8530,7 @@
       </c>
       <c r="F191" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>12</v>
@@ -8543,7 +8539,7 @@
         <v>263.43</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J191" s="3">
         <v>2</v>
@@ -8576,7 +8572,7 @@
       </c>
       <c r="F192" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>12</v>
@@ -8585,7 +8581,7 @@
         <v>263.43</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J192" s="3">
         <v>3</v>
@@ -8618,7 +8614,7 @@
       </c>
       <c r="F193" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>12</v>
@@ -8627,7 +8623,7 @@
         <v>263.43</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J193" s="3">
         <v>4</v>
@@ -8660,7 +8656,7 @@
       </c>
       <c r="F194" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>13</v>
@@ -8669,7 +8665,7 @@
         <v>526.86</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J194" s="3">
         <v>1</v>
@@ -8702,7 +8698,7 @@
       </c>
       <c r="F195" s="3" t="str">
         <f t="shared" ref="F195:F258" si="3">_xlfn.CONCAT(D195, "+", E195, "+", I195)</f>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>13</v>
@@ -8711,7 +8707,7 @@
         <v>526.86</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J195" s="3">
         <v>2</v>
@@ -8744,7 +8740,7 @@
       </c>
       <c r="F196" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>13</v>
@@ -8753,7 +8749,7 @@
         <v>526.86</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J196" s="3">
         <v>3</v>
@@ -8786,7 +8782,7 @@
       </c>
       <c r="F197" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>13</v>
@@ -8795,7 +8791,7 @@
         <v>526.86</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J197" s="3">
         <v>4</v>
@@ -8828,7 +8824,7 @@
       </c>
       <c r="F198" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>14</v>
@@ -8837,7 +8833,7 @@
         <v>1053.73</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J198" s="3">
         <v>1</v>
@@ -8870,7 +8866,7 @@
       </c>
       <c r="F199" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>14</v>
@@ -8879,7 +8875,7 @@
         <v>1053.73</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J199" s="3">
         <v>2</v>
@@ -8912,7 +8908,7 @@
       </c>
       <c r="F200" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>14</v>
@@ -8921,7 +8917,7 @@
         <v>1053.73</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J200" s="3">
         <v>3</v>
@@ -8954,7 +8950,7 @@
       </c>
       <c r="F201" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>14</v>
@@ -8963,7 +8959,7 @@
         <v>1053.73</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J201" s="3">
         <v>4</v>
@@ -9005,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J202" s="3">
         <v>1</v>
@@ -9047,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J203" s="3">
         <v>2</v>
@@ -9089,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J204" s="3">
         <v>3</v>
@@ -9131,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J205" s="3">
         <v>4</v>
@@ -9173,7 +9169,7 @@
         <v>4.12</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J206" s="3">
         <v>1</v>
@@ -9215,7 +9211,7 @@
         <v>4.12</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J207" s="3">
         <v>2</v>
@@ -9257,7 +9253,7 @@
         <v>4.12</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J208" s="3">
         <v>3</v>
@@ -9299,7 +9295,7 @@
         <v>4.12</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J209" s="3">
         <v>4</v>
@@ -9341,7 +9337,7 @@
         <v>8.23</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J210" s="3">
         <v>1</v>
@@ -9383,7 +9379,7 @@
         <v>8.23</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J211" s="3">
         <v>2</v>
@@ -9425,7 +9421,7 @@
         <v>8.23</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J212" s="3">
         <v>3</v>
@@ -9467,7 +9463,7 @@
         <v>8.23</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J213" s="3">
         <v>4</v>
@@ -9509,7 +9505,7 @@
         <v>16.46</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J214" s="3">
         <v>1</v>
@@ -9551,7 +9547,7 @@
         <v>16.46</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J215" s="3">
         <v>2</v>
@@ -9593,7 +9589,7 @@
         <v>16.46</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J216" s="3">
         <v>3</v>
@@ -9635,7 +9631,7 @@
         <v>16.46</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J217" s="3">
         <v>4</v>
@@ -9677,7 +9673,7 @@
         <v>32.93</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J218" s="3">
         <v>1</v>
@@ -9719,7 +9715,7 @@
         <v>32.93</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J219" s="3">
         <v>2</v>
@@ -9761,7 +9757,7 @@
         <v>32.93</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J220" s="3">
         <v>3</v>
@@ -9803,7 +9799,7 @@
         <v>32.93</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J221" s="3">
         <v>4</v>
@@ -9845,7 +9841,7 @@
         <v>65.86</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J222" s="3">
         <v>1</v>
@@ -9887,7 +9883,7 @@
         <v>65.86</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J223" s="3">
         <v>2</v>
@@ -9929,7 +9925,7 @@
         <v>65.86</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J224" s="3">
         <v>3</v>
@@ -9971,7 +9967,7 @@
         <v>65.86</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J225" s="3">
         <v>4</v>
@@ -10013,7 +10009,7 @@
         <v>131.72</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J226" s="3">
         <v>1</v>
@@ -10055,7 +10051,7 @@
         <v>131.72</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J227" s="3">
         <v>2</v>
@@ -10097,7 +10093,7 @@
         <v>131.72</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J228" s="3">
         <v>3</v>
@@ -10139,7 +10135,7 @@
         <v>131.72</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J229" s="3">
         <v>4</v>
@@ -10181,7 +10177,7 @@
         <v>263.43</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J230" s="3">
         <v>1</v>
@@ -10223,7 +10219,7 @@
         <v>263.43</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J231" s="3">
         <v>2</v>
@@ -10265,7 +10261,7 @@
         <v>263.43</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J232" s="3">
         <v>3</v>
@@ -10307,7 +10303,7 @@
         <v>263.43</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J233" s="3">
         <v>4</v>
@@ -10349,7 +10345,7 @@
         <v>526.86</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J234" s="3">
         <v>1</v>
@@ -10391,7 +10387,7 @@
         <v>526.86</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J235" s="3">
         <v>2</v>
@@ -10433,7 +10429,7 @@
         <v>526.86</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J236" s="3">
         <v>3</v>
@@ -10475,7 +10471,7 @@
         <v>526.86</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J237" s="3">
         <v>4</v>
@@ -10517,7 +10513,7 @@
         <v>1053.73</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J238" s="3">
         <v>1</v>
@@ -10559,7 +10555,7 @@
         <v>1053.73</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J239" s="3">
         <v>2</v>
@@ -10601,7 +10597,7 @@
         <v>1053.73</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J240" s="3">
         <v>3</v>
@@ -10643,7 +10639,7 @@
         <v>1053.73</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J241" s="3">
         <v>4</v>
@@ -10685,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J242" s="3">
         <v>1</v>
@@ -10727,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J243" s="3">
         <v>2</v>
@@ -10769,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J244" s="3">
         <v>3</v>
@@ -10811,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J245" s="3">
         <v>4</v>
@@ -10853,7 +10849,7 @@
         <v>4.12</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J246" s="3">
         <v>1</v>
@@ -10895,7 +10891,7 @@
         <v>4.12</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J247" s="3">
         <v>2</v>
@@ -10937,7 +10933,7 @@
         <v>4.12</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J248" s="3">
         <v>3</v>
@@ -10979,7 +10975,7 @@
         <v>4.12</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J249" s="3">
         <v>4</v>
@@ -11021,7 +11017,7 @@
         <v>8.23</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J250" s="3">
         <v>1</v>
@@ -11063,7 +11059,7 @@
         <v>8.23</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J251" s="3">
         <v>2</v>
@@ -11105,7 +11101,7 @@
         <v>8.23</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J252" s="3">
         <v>3</v>
@@ -11147,7 +11143,7 @@
         <v>8.23</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J253" s="3">
         <v>4</v>
@@ -11189,7 +11185,7 @@
         <v>16.46</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J254" s="3">
         <v>1</v>
@@ -11231,7 +11227,7 @@
         <v>16.46</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J255" s="3">
         <v>2</v>
@@ -11273,7 +11269,7 @@
         <v>16.46</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J256" s="3">
         <v>3</v>
@@ -11315,7 +11311,7 @@
         <v>16.46</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J257" s="3">
         <v>4</v>
@@ -11357,7 +11353,7 @@
         <v>32.93</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J258" s="3">
         <v>1</v>
@@ -11399,7 +11395,7 @@
         <v>32.93</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J259" s="3">
         <v>2</v>
@@ -11441,7 +11437,7 @@
         <v>32.93</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J260" s="3">
         <v>3</v>
@@ -11483,7 +11479,7 @@
         <v>32.93</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J261" s="3">
         <v>4</v>
@@ -11525,7 +11521,7 @@
         <v>65.86</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J262" s="3">
         <v>1</v>
@@ -11567,7 +11563,7 @@
         <v>65.86</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J263" s="3">
         <v>2</v>
@@ -11609,7 +11605,7 @@
         <v>65.86</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J264" s="3">
         <v>3</v>
@@ -11651,7 +11647,7 @@
         <v>65.86</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J265" s="3">
         <v>4</v>
@@ -11693,7 +11689,7 @@
         <v>131.72</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J266" s="3">
         <v>1</v>
@@ -11735,7 +11731,7 @@
         <v>131.72</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J267" s="3">
         <v>2</v>
@@ -11777,7 +11773,7 @@
         <v>131.72</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J268" s="3">
         <v>3</v>
@@ -11819,7 +11815,7 @@
         <v>131.72</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J269" s="3">
         <v>4</v>
@@ -11861,7 +11857,7 @@
         <v>263.43</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J270" s="3">
         <v>1</v>
@@ -11903,7 +11899,7 @@
         <v>263.43</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J271" s="3">
         <v>2</v>
@@ -11945,7 +11941,7 @@
         <v>263.43</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J272" s="3">
         <v>3</v>
@@ -11987,7 +11983,7 @@
         <v>263.43</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J273" s="3">
         <v>4</v>
@@ -12029,7 +12025,7 @@
         <v>526.86</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J274" s="3">
         <v>1</v>
@@ -12071,7 +12067,7 @@
         <v>526.86</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J275" s="3">
         <v>2</v>
@@ -12113,7 +12109,7 @@
         <v>526.86</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J276" s="3">
         <v>3</v>
@@ -12155,7 +12151,7 @@
         <v>526.86</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J277" s="3">
         <v>4</v>
@@ -12197,7 +12193,7 @@
         <v>1053.73</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J278" s="3">
         <v>1</v>
@@ -12239,7 +12235,7 @@
         <v>1053.73</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J279" s="3">
         <v>2</v>
@@ -12281,7 +12277,7 @@
         <v>1053.73</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J280" s="3">
         <v>3</v>
@@ -12323,7 +12319,7 @@
         <v>1053.73</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J281" s="3">
         <v>4</v>
@@ -12365,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J282" s="3">
         <v>1</v>
@@ -12407,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J283" s="3">
         <v>2</v>
@@ -12449,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J284" s="3">
         <v>3</v>
@@ -12491,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J285" s="3">
         <v>4</v>
@@ -12533,7 +12529,7 @@
         <v>4.12</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J286" s="3">
         <v>1</v>
@@ -12575,7 +12571,7 @@
         <v>4.12</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J287" s="3">
         <v>2</v>
@@ -12617,7 +12613,7 @@
         <v>4.12</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J288" s="3">
         <v>3</v>
@@ -12659,7 +12655,7 @@
         <v>4.12</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J289" s="3">
         <v>4</v>
@@ -12701,7 +12697,7 @@
         <v>8.23</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J290" s="3">
         <v>1</v>
@@ -12743,7 +12739,7 @@
         <v>8.23</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J291" s="3">
         <v>2</v>
@@ -12785,7 +12781,7 @@
         <v>8.23</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J292" s="3">
         <v>3</v>
@@ -12827,7 +12823,7 @@
         <v>8.23</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J293" s="3">
         <v>4</v>
@@ -12869,7 +12865,7 @@
         <v>16.46</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J294" s="3">
         <v>1</v>
@@ -12911,7 +12907,7 @@
         <v>16.46</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J295" s="3">
         <v>2</v>
@@ -12953,7 +12949,7 @@
         <v>16.46</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J296" s="3">
         <v>3</v>
@@ -12995,7 +12991,7 @@
         <v>16.46</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J297" s="3">
         <v>4</v>
@@ -13037,7 +13033,7 @@
         <v>32.93</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J298" s="3">
         <v>1</v>
@@ -13079,7 +13075,7 @@
         <v>32.93</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J299" s="3">
         <v>2</v>
@@ -13121,7 +13117,7 @@
         <v>32.93</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J300" s="3">
         <v>3</v>
@@ -13163,7 +13159,7 @@
         <v>32.93</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J301" s="3">
         <v>4</v>
@@ -13205,7 +13201,7 @@
         <v>65.86</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J302" s="3">
         <v>1</v>
@@ -13247,7 +13243,7 @@
         <v>65.86</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J303" s="3">
         <v>2</v>
@@ -13289,7 +13285,7 @@
         <v>65.86</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J304" s="3">
         <v>3</v>
@@ -13331,7 +13327,7 @@
         <v>65.86</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J305" s="3">
         <v>4</v>
@@ -13373,7 +13369,7 @@
         <v>131.72</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J306" s="3">
         <v>1</v>
@@ -13415,7 +13411,7 @@
         <v>131.72</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J307" s="3">
         <v>2</v>
@@ -13457,7 +13453,7 @@
         <v>131.72</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J308" s="3">
         <v>3</v>
@@ -13499,7 +13495,7 @@
         <v>131.72</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J309" s="3">
         <v>4</v>
@@ -13541,7 +13537,7 @@
         <v>263.43</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J310" s="3">
         <v>1</v>
@@ -13583,7 +13579,7 @@
         <v>263.43</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J311" s="3">
         <v>2</v>
@@ -13625,7 +13621,7 @@
         <v>263.43</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J312" s="3">
         <v>3</v>
@@ -13667,7 +13663,7 @@
         <v>263.43</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J313" s="3">
         <v>4</v>
@@ -13709,7 +13705,7 @@
         <v>526.86</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J314" s="3">
         <v>1</v>
@@ -13751,7 +13747,7 @@
         <v>526.86</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J315" s="3">
         <v>2</v>
@@ -13793,7 +13789,7 @@
         <v>526.86</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J316" s="3">
         <v>3</v>
@@ -13835,7 +13831,7 @@
         <v>526.86</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J317" s="3">
         <v>4</v>
@@ -13877,7 +13873,7 @@
         <v>1053.73</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J318" s="3">
         <v>1</v>
@@ -13919,7 +13915,7 @@
         <v>1053.73</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J319" s="3">
         <v>2</v>
@@ -13961,7 +13957,7 @@
         <v>1053.73</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J320" s="3">
         <v>3</v>
@@ -14003,7 +13999,7 @@
         <v>1053.73</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J321" s="3">
         <v>4</v>
@@ -14036,7 +14032,7 @@
       </c>
       <c r="F322" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>8</v>
@@ -14045,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J322" s="3">
         <v>1</v>
@@ -14078,7 +14074,7 @@
       </c>
       <c r="F323" s="3" t="str">
         <f t="shared" ref="F323:F386" si="5">_xlfn.CONCAT(D323, "+", E323, "+", I323)</f>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>8</v>
@@ -14087,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J323" s="3">
         <v>2</v>
@@ -14120,7 +14116,7 @@
       </c>
       <c r="F324" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>8</v>
@@ -14129,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J324" s="3">
         <v>3</v>
@@ -14162,7 +14158,7 @@
       </c>
       <c r="F325" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>8</v>
@@ -14171,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J325" s="3">
         <v>4</v>
@@ -14204,7 +14200,7 @@
       </c>
       <c r="F326" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>18</v>
@@ -14213,7 +14209,7 @@
         <v>4.12</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J326" s="3">
         <v>1</v>
@@ -14246,7 +14242,7 @@
       </c>
       <c r="F327" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G327" s="3" t="s">
         <v>18</v>
@@ -14255,7 +14251,7 @@
         <v>4.12</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J327" s="3">
         <v>2</v>
@@ -14288,7 +14284,7 @@
       </c>
       <c r="F328" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G328" s="3" t="s">
         <v>18</v>
@@ -14297,7 +14293,7 @@
         <v>4.12</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J328" s="3">
         <v>3</v>
@@ -14330,7 +14326,7 @@
       </c>
       <c r="F329" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G329" s="3" t="s">
         <v>18</v>
@@ -14339,7 +14335,7 @@
         <v>4.12</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J329" s="3">
         <v>4</v>
@@ -14372,7 +14368,7 @@
       </c>
       <c r="F330" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G330" s="3" t="s">
         <v>19</v>
@@ -14381,7 +14377,7 @@
         <v>8.23</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J330" s="3">
         <v>1</v>
@@ -14414,7 +14410,7 @@
       </c>
       <c r="F331" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G331" s="3" t="s">
         <v>19</v>
@@ -14423,7 +14419,7 @@
         <v>8.23</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J331" s="3">
         <v>2</v>
@@ -14456,7 +14452,7 @@
       </c>
       <c r="F332" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>19</v>
@@ -14465,7 +14461,7 @@
         <v>8.23</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J332" s="3">
         <v>3</v>
@@ -14498,7 +14494,7 @@
       </c>
       <c r="F333" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>19</v>
@@ -14507,7 +14503,7 @@
         <v>8.23</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J333" s="3">
         <v>4</v>
@@ -14540,7 +14536,7 @@
       </c>
       <c r="F334" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G334" s="3" t="s">
         <v>20</v>
@@ -14549,7 +14545,7 @@
         <v>16.46</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J334" s="3">
         <v>1</v>
@@ -14582,7 +14578,7 @@
       </c>
       <c r="F335" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G335" s="3" t="s">
         <v>20</v>
@@ -14591,7 +14587,7 @@
         <v>16.46</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J335" s="3">
         <v>2</v>
@@ -14624,7 +14620,7 @@
       </c>
       <c r="F336" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>20</v>
@@ -14633,7 +14629,7 @@
         <v>16.46</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J336" s="3">
         <v>3</v>
@@ -14666,7 +14662,7 @@
       </c>
       <c r="F337" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G337" s="3" t="s">
         <v>20</v>
@@ -14675,7 +14671,7 @@
         <v>16.46</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J337" s="3">
         <v>4</v>
@@ -14708,7 +14704,7 @@
       </c>
       <c r="F338" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>9</v>
@@ -14717,7 +14713,7 @@
         <v>32.93</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J338" s="3">
         <v>1</v>
@@ -14750,7 +14746,7 @@
       </c>
       <c r="F339" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>9</v>
@@ -14759,7 +14755,7 @@
         <v>32.93</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J339" s="3">
         <v>2</v>
@@ -14792,7 +14788,7 @@
       </c>
       <c r="F340" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>9</v>
@@ -14801,7 +14797,7 @@
         <v>32.93</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J340" s="3">
         <v>3</v>
@@ -14834,7 +14830,7 @@
       </c>
       <c r="F341" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>9</v>
@@ -14843,7 +14839,7 @@
         <v>32.93</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J341" s="3">
         <v>4</v>
@@ -14876,7 +14872,7 @@
       </c>
       <c r="F342" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>10</v>
@@ -14885,7 +14881,7 @@
         <v>65.86</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J342" s="3">
         <v>1</v>
@@ -14918,7 +14914,7 @@
       </c>
       <c r="F343" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>10</v>
@@ -14927,7 +14923,7 @@
         <v>65.86</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J343" s="3">
         <v>2</v>
@@ -14960,7 +14956,7 @@
       </c>
       <c r="F344" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>10</v>
@@ -14969,7 +14965,7 @@
         <v>65.86</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J344" s="3">
         <v>3</v>
@@ -15002,7 +14998,7 @@
       </c>
       <c r="F345" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>10</v>
@@ -15011,7 +15007,7 @@
         <v>65.86</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J345" s="3">
         <v>4</v>
@@ -15044,7 +15040,7 @@
       </c>
       <c r="F346" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>11</v>
@@ -15053,7 +15049,7 @@
         <v>131.72</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J346" s="3">
         <v>1</v>
@@ -15086,7 +15082,7 @@
       </c>
       <c r="F347" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>11</v>
@@ -15095,7 +15091,7 @@
         <v>131.72</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J347" s="3">
         <v>2</v>
@@ -15128,7 +15124,7 @@
       </c>
       <c r="F348" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>11</v>
@@ -15137,7 +15133,7 @@
         <v>131.72</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J348" s="3">
         <v>3</v>
@@ -15170,7 +15166,7 @@
       </c>
       <c r="F349" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>11</v>
@@ -15179,7 +15175,7 @@
         <v>131.72</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J349" s="3">
         <v>4</v>
@@ -15212,7 +15208,7 @@
       </c>
       <c r="F350" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>12</v>
@@ -15221,7 +15217,7 @@
         <v>263.43</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J350" s="3">
         <v>1</v>
@@ -15254,7 +15250,7 @@
       </c>
       <c r="F351" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>12</v>
@@ -15263,7 +15259,7 @@
         <v>263.43</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J351" s="3">
         <v>2</v>
@@ -15296,7 +15292,7 @@
       </c>
       <c r="F352" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>12</v>
@@ -15305,7 +15301,7 @@
         <v>263.43</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J352" s="3">
         <v>3</v>
@@ -15338,7 +15334,7 @@
       </c>
       <c r="F353" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>12</v>
@@ -15347,7 +15343,7 @@
         <v>263.43</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J353" s="3">
         <v>4</v>
@@ -15380,7 +15376,7 @@
       </c>
       <c r="F354" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>13</v>
@@ -15389,7 +15385,7 @@
         <v>526.86</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J354" s="3">
         <v>1</v>
@@ -15422,7 +15418,7 @@
       </c>
       <c r="F355" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>13</v>
@@ -15431,7 +15427,7 @@
         <v>526.86</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J355" s="3">
         <v>2</v>
@@ -15464,7 +15460,7 @@
       </c>
       <c r="F356" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>13</v>
@@ -15473,7 +15469,7 @@
         <v>526.86</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J356" s="3">
         <v>3</v>
@@ -15506,7 +15502,7 @@
       </c>
       <c r="F357" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>13</v>
@@ -15515,7 +15511,7 @@
         <v>526.86</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J357" s="3">
         <v>4</v>
@@ -15548,7 +15544,7 @@
       </c>
       <c r="F358" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>14</v>
@@ -15557,7 +15553,7 @@
         <v>1053.73</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J358" s="3">
         <v>1</v>
@@ -15590,7 +15586,7 @@
       </c>
       <c r="F359" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G359" s="3" t="s">
         <v>14</v>
@@ -15599,7 +15595,7 @@
         <v>1053.73</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J359" s="3">
         <v>2</v>
@@ -15632,7 +15628,7 @@
       </c>
       <c r="F360" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G360" s="3" t="s">
         <v>14</v>
@@ -15641,7 +15637,7 @@
         <v>1053.73</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J360" s="3">
         <v>3</v>
@@ -15674,7 +15670,7 @@
       </c>
       <c r="F361" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A106+fome+elevated</v>
+        <v>A106+fome+increased</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>14</v>
@@ -15683,7 +15679,7 @@
         <v>1053.73</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J361" s="3">
         <v>4</v>
@@ -15725,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J362" s="3">
         <v>1</v>
@@ -15767,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J363" s="3">
         <v>2</v>
@@ -15809,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J364" s="3">
         <v>3</v>
@@ -15851,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J365" s="3">
         <v>4</v>
@@ -15893,7 +15889,7 @@
         <v>4.12</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J366" s="3">
         <v>1</v>
@@ -15935,7 +15931,7 @@
         <v>4.12</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J367" s="3">
         <v>2</v>
@@ -15977,7 +15973,7 @@
         <v>4.12</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J368" s="3">
         <v>3</v>
@@ -16019,7 +16015,7 @@
         <v>4.12</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J369" s="3">
         <v>4</v>
@@ -16061,7 +16057,7 @@
         <v>8.23</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J370" s="3">
         <v>1</v>
@@ -16103,7 +16099,7 @@
         <v>8.23</v>
       </c>
       <c r="I371" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J371" s="3">
         <v>2</v>
@@ -16145,7 +16141,7 @@
         <v>8.23</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J372" s="3">
         <v>3</v>
@@ -16187,7 +16183,7 @@
         <v>8.23</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J373" s="3">
         <v>4</v>
@@ -16229,7 +16225,7 @@
         <v>16.46</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J374" s="3">
         <v>1</v>
@@ -16271,7 +16267,7 @@
         <v>16.46</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J375" s="3">
         <v>2</v>
@@ -16313,7 +16309,7 @@
         <v>16.46</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J376" s="3">
         <v>3</v>
@@ -16355,7 +16351,7 @@
         <v>16.46</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J377" s="3">
         <v>4</v>
@@ -16397,7 +16393,7 @@
         <v>32.93</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J378" s="3">
         <v>1</v>
@@ -16439,7 +16435,7 @@
         <v>32.93</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J379" s="3">
         <v>2</v>
@@ -16481,7 +16477,7 @@
         <v>32.93</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J380" s="3">
         <v>3</v>
@@ -16523,7 +16519,7 @@
         <v>32.93</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J381" s="3">
         <v>4</v>
@@ -16565,7 +16561,7 @@
         <v>65.86</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J382" s="3">
         <v>1</v>
@@ -16607,7 +16603,7 @@
         <v>65.86</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J383" s="3">
         <v>2</v>
@@ -16649,7 +16645,7 @@
         <v>65.86</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J384" s="3">
         <v>3</v>
@@ -16691,7 +16687,7 @@
         <v>65.86</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J385" s="3">
         <v>4</v>
@@ -16733,7 +16729,7 @@
         <v>131.72</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J386" s="3">
         <v>1</v>
@@ -16775,7 +16771,7 @@
         <v>131.72</v>
       </c>
       <c r="I387" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J387" s="3">
         <v>2</v>
@@ -16817,7 +16813,7 @@
         <v>131.72</v>
       </c>
       <c r="I388" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J388" s="3">
         <v>3</v>
@@ -16859,7 +16855,7 @@
         <v>131.72</v>
       </c>
       <c r="I389" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J389" s="3">
         <v>4</v>
@@ -16901,7 +16897,7 @@
         <v>263.43</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J390" s="3">
         <v>1</v>
@@ -16943,7 +16939,7 @@
         <v>263.43</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J391" s="3">
         <v>2</v>
@@ -16985,7 +16981,7 @@
         <v>263.43</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J392" s="3">
         <v>3</v>
@@ -17027,7 +17023,7 @@
         <v>263.43</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J393" s="3">
         <v>4</v>
@@ -17069,7 +17065,7 @@
         <v>526.86</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J394" s="3">
         <v>1</v>
@@ -17111,7 +17107,7 @@
         <v>526.86</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J395" s="3">
         <v>2</v>
@@ -17153,7 +17149,7 @@
         <v>526.86</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J396" s="3">
         <v>3</v>
@@ -17195,7 +17191,7 @@
         <v>526.86</v>
       </c>
       <c r="I397" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J397" s="3">
         <v>4</v>
@@ -17237,7 +17233,7 @@
         <v>1053.73</v>
       </c>
       <c r="I398" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J398" s="3">
         <v>1</v>
@@ -17279,7 +17275,7 @@
         <v>1053.73</v>
       </c>
       <c r="I399" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J399" s="3">
         <v>2</v>
@@ -17321,7 +17317,7 @@
         <v>1053.73</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J400" s="3">
         <v>3</v>
@@ -17363,7 +17359,7 @@
         <v>1053.73</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J401" s="3">
         <v>4</v>
@@ -17396,7 +17392,7 @@
       </c>
       <c r="F402" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>8</v>
@@ -17405,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J402" s="3">
         <v>1</v>
@@ -17438,7 +17434,7 @@
       </c>
       <c r="F403" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G403" s="3" t="s">
         <v>8</v>
@@ -17447,7 +17443,7 @@
         <v>0</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J403" s="3">
         <v>2</v>
@@ -17480,7 +17476,7 @@
       </c>
       <c r="F404" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G404" s="3" t="s">
         <v>8</v>
@@ -17489,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J404" s="3">
         <v>3</v>
@@ -17522,7 +17518,7 @@
       </c>
       <c r="F405" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>8</v>
@@ -17531,7 +17527,7 @@
         <v>0</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J405" s="3">
         <v>4</v>
@@ -17564,7 +17560,7 @@
       </c>
       <c r="F406" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G406" s="3" t="s">
         <v>18</v>
@@ -17573,7 +17569,7 @@
         <v>4.12</v>
       </c>
       <c r="I406" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J406" s="3">
         <v>1</v>
@@ -17606,7 +17602,7 @@
       </c>
       <c r="F407" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G407" s="3" t="s">
         <v>18</v>
@@ -17615,7 +17611,7 @@
         <v>4.12</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J407" s="3">
         <v>2</v>
@@ -17648,7 +17644,7 @@
       </c>
       <c r="F408" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>18</v>
@@ -17657,7 +17653,7 @@
         <v>4.12</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J408" s="3">
         <v>3</v>
@@ -17690,7 +17686,7 @@
       </c>
       <c r="F409" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G409" s="3" t="s">
         <v>18</v>
@@ -17699,7 +17695,7 @@
         <v>4.12</v>
       </c>
       <c r="I409" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J409" s="3">
         <v>4</v>
@@ -17732,7 +17728,7 @@
       </c>
       <c r="F410" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>19</v>
@@ -17741,7 +17737,7 @@
         <v>8.23</v>
       </c>
       <c r="I410" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J410" s="3">
         <v>1</v>
@@ -17774,7 +17770,7 @@
       </c>
       <c r="F411" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>19</v>
@@ -17783,7 +17779,7 @@
         <v>8.23</v>
       </c>
       <c r="I411" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J411" s="3">
         <v>2</v>
@@ -17816,7 +17812,7 @@
       </c>
       <c r="F412" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>19</v>
@@ -17825,7 +17821,7 @@
         <v>8.23</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J412" s="3">
         <v>3</v>
@@ -17858,7 +17854,7 @@
       </c>
       <c r="F413" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>19</v>
@@ -17867,7 +17863,7 @@
         <v>8.23</v>
       </c>
       <c r="I413" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J413" s="3">
         <v>4</v>
@@ -17900,7 +17896,7 @@
       </c>
       <c r="F414" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>20</v>
@@ -17909,7 +17905,7 @@
         <v>16.46</v>
       </c>
       <c r="I414" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J414" s="3">
         <v>1</v>
@@ -17942,7 +17938,7 @@
       </c>
       <c r="F415" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G415" s="3" t="s">
         <v>20</v>
@@ -17951,7 +17947,7 @@
         <v>16.46</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J415" s="3">
         <v>2</v>
@@ -17984,7 +17980,7 @@
       </c>
       <c r="F416" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>20</v>
@@ -17993,7 +17989,7 @@
         <v>16.46</v>
       </c>
       <c r="I416" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J416" s="3">
         <v>3</v>
@@ -18026,7 +18022,7 @@
       </c>
       <c r="F417" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>20</v>
@@ -18035,7 +18031,7 @@
         <v>16.46</v>
       </c>
       <c r="I417" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J417" s="3">
         <v>4</v>
@@ -18068,7 +18064,7 @@
       </c>
       <c r="F418" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>9</v>
@@ -18077,7 +18073,7 @@
         <v>32.93</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J418" s="3">
         <v>1</v>
@@ -18110,7 +18106,7 @@
       </c>
       <c r="F419" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G419" s="3" t="s">
         <v>9</v>
@@ -18119,7 +18115,7 @@
         <v>32.93</v>
       </c>
       <c r="I419" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J419" s="3">
         <v>2</v>
@@ -18152,7 +18148,7 @@
       </c>
       <c r="F420" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G420" s="3" t="s">
         <v>9</v>
@@ -18161,7 +18157,7 @@
         <v>32.93</v>
       </c>
       <c r="I420" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J420" s="3">
         <v>3</v>
@@ -18194,7 +18190,7 @@
       </c>
       <c r="F421" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>9</v>
@@ -18203,7 +18199,7 @@
         <v>32.93</v>
       </c>
       <c r="I421" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J421" s="3">
         <v>4</v>
@@ -18236,7 +18232,7 @@
       </c>
       <c r="F422" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>10</v>
@@ -18245,7 +18241,7 @@
         <v>65.86</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J422" s="3">
         <v>1</v>
@@ -18278,7 +18274,7 @@
       </c>
       <c r="F423" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>10</v>
@@ -18287,7 +18283,7 @@
         <v>65.86</v>
       </c>
       <c r="I423" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J423" s="3">
         <v>2</v>
@@ -18320,7 +18316,7 @@
       </c>
       <c r="F424" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>10</v>
@@ -18329,7 +18325,7 @@
         <v>65.86</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J424" s="3">
         <v>3</v>
@@ -18362,7 +18358,7 @@
       </c>
       <c r="F425" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>10</v>
@@ -18371,7 +18367,7 @@
         <v>65.86</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J425" s="3">
         <v>4</v>
@@ -18404,7 +18400,7 @@
       </c>
       <c r="F426" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>11</v>
@@ -18413,7 +18409,7 @@
         <v>131.72</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J426" s="3">
         <v>1</v>
@@ -18446,7 +18442,7 @@
       </c>
       <c r="F427" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>11</v>
@@ -18455,7 +18451,7 @@
         <v>131.72</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J427" s="3">
         <v>2</v>
@@ -18488,7 +18484,7 @@
       </c>
       <c r="F428" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G428" s="3" t="s">
         <v>11</v>
@@ -18497,7 +18493,7 @@
         <v>131.72</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J428" s="3">
         <v>3</v>
@@ -18530,7 +18526,7 @@
       </c>
       <c r="F429" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>11</v>
@@ -18539,7 +18535,7 @@
         <v>131.72</v>
       </c>
       <c r="I429" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J429" s="3">
         <v>4</v>
@@ -18572,7 +18568,7 @@
       </c>
       <c r="F430" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>12</v>
@@ -18581,7 +18577,7 @@
         <v>263.43</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J430" s="3">
         <v>1</v>
@@ -18614,7 +18610,7 @@
       </c>
       <c r="F431" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G431" s="3" t="s">
         <v>12</v>
@@ -18623,7 +18619,7 @@
         <v>263.43</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J431" s="3">
         <v>2</v>
@@ -18656,7 +18652,7 @@
       </c>
       <c r="F432" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>12</v>
@@ -18665,7 +18661,7 @@
         <v>263.43</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J432" s="3">
         <v>3</v>
@@ -18698,7 +18694,7 @@
       </c>
       <c r="F433" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>12</v>
@@ -18707,7 +18703,7 @@
         <v>263.43</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J433" s="3">
         <v>4</v>
@@ -18740,7 +18736,7 @@
       </c>
       <c r="F434" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>13</v>
@@ -18749,7 +18745,7 @@
         <v>526.86</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J434" s="3">
         <v>1</v>
@@ -18782,7 +18778,7 @@
       </c>
       <c r="F435" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>13</v>
@@ -18791,7 +18787,7 @@
         <v>526.86</v>
       </c>
       <c r="I435" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J435" s="3">
         <v>2</v>
@@ -18824,7 +18820,7 @@
       </c>
       <c r="F436" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G436" s="3" t="s">
         <v>13</v>
@@ -18833,7 +18829,7 @@
         <v>526.86</v>
       </c>
       <c r="I436" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J436" s="3">
         <v>3</v>
@@ -18866,7 +18862,7 @@
       </c>
       <c r="F437" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>13</v>
@@ -18875,7 +18871,7 @@
         <v>526.86</v>
       </c>
       <c r="I437" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J437" s="3">
         <v>4</v>
@@ -18908,7 +18904,7 @@
       </c>
       <c r="F438" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G438" s="3" t="s">
         <v>14</v>
@@ -18917,7 +18913,7 @@
         <v>1053.73</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J438" s="3">
         <v>1</v>
@@ -18950,7 +18946,7 @@
       </c>
       <c r="F439" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G439" s="3" t="s">
         <v>14</v>
@@ -18959,7 +18955,7 @@
         <v>1053.73</v>
       </c>
       <c r="I439" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J439" s="3">
         <v>2</v>
@@ -18992,7 +18988,7 @@
       </c>
       <c r="F440" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G440" s="3" t="s">
         <v>14</v>
@@ -19001,7 +18997,7 @@
         <v>1053.73</v>
       </c>
       <c r="I440" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J440" s="3">
         <v>3</v>
@@ -19034,7 +19030,7 @@
       </c>
       <c r="F441" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+elevated</v>
+        <v>A101+fome+increased</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>14</v>
@@ -19043,7 +19039,7 @@
         <v>1053.73</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J441" s="3">
         <v>4</v>
@@ -19076,7 +19072,7 @@
       </c>
       <c r="F442" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G442" s="3" t="s">
         <v>8</v>
@@ -19085,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="I442" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J442" s="3">
         <v>1</v>
@@ -19118,7 +19114,7 @@
       </c>
       <c r="F443" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G443" s="3" t="s">
         <v>8</v>
@@ -19127,7 +19123,7 @@
         <v>0</v>
       </c>
       <c r="I443" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J443" s="3">
         <v>2</v>
@@ -19160,7 +19156,7 @@
       </c>
       <c r="F444" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G444" s="3" t="s">
         <v>8</v>
@@ -19169,7 +19165,7 @@
         <v>0</v>
       </c>
       <c r="I444" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J444" s="3">
         <v>3</v>
@@ -19202,7 +19198,7 @@
       </c>
       <c r="F445" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G445" s="3" t="s">
         <v>8</v>
@@ -19211,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J445" s="3">
         <v>4</v>
@@ -19244,7 +19240,7 @@
       </c>
       <c r="F446" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G446" s="3" t="s">
         <v>18</v>
@@ -19253,7 +19249,7 @@
         <v>4.12</v>
       </c>
       <c r="I446" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J446" s="3">
         <v>1</v>
@@ -19286,7 +19282,7 @@
       </c>
       <c r="F447" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G447" s="3" t="s">
         <v>18</v>
@@ -19295,7 +19291,7 @@
         <v>4.12</v>
       </c>
       <c r="I447" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J447" s="3">
         <v>2</v>
@@ -19328,7 +19324,7 @@
       </c>
       <c r="F448" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>18</v>
@@ -19337,7 +19333,7 @@
         <v>4.12</v>
       </c>
       <c r="I448" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J448" s="3">
         <v>3</v>
@@ -19370,7 +19366,7 @@
       </c>
       <c r="F449" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G449" s="3" t="s">
         <v>18</v>
@@ -19379,7 +19375,7 @@
         <v>4.12</v>
       </c>
       <c r="I449" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J449" s="3">
         <v>4</v>
@@ -19412,7 +19408,7 @@
       </c>
       <c r="F450" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>19</v>
@@ -19421,7 +19417,7 @@
         <v>8.23</v>
       </c>
       <c r="I450" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J450" s="3">
         <v>1</v>
@@ -19454,7 +19450,7 @@
       </c>
       <c r="F451" s="3" t="str">
         <f t="shared" ref="F451:F514" si="7">_xlfn.CONCAT(D451, "+", E451, "+", I451)</f>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>19</v>
@@ -19463,7 +19459,7 @@
         <v>8.23</v>
       </c>
       <c r="I451" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J451" s="3">
         <v>2</v>
@@ -19496,7 +19492,7 @@
       </c>
       <c r="F452" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G452" s="3" t="s">
         <v>19</v>
@@ -19505,7 +19501,7 @@
         <v>8.23</v>
       </c>
       <c r="I452" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J452" s="3">
         <v>3</v>
@@ -19538,7 +19534,7 @@
       </c>
       <c r="F453" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>19</v>
@@ -19547,7 +19543,7 @@
         <v>8.23</v>
       </c>
       <c r="I453" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J453" s="3">
         <v>4</v>
@@ -19580,7 +19576,7 @@
       </c>
       <c r="F454" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>20</v>
@@ -19589,7 +19585,7 @@
         <v>16.46</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J454" s="3">
         <v>1</v>
@@ -19622,7 +19618,7 @@
       </c>
       <c r="F455" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>20</v>
@@ -19631,7 +19627,7 @@
         <v>16.46</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J455" s="3">
         <v>2</v>
@@ -19664,7 +19660,7 @@
       </c>
       <c r="F456" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G456" s="3" t="s">
         <v>20</v>
@@ -19673,7 +19669,7 @@
         <v>16.46</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J456" s="3">
         <v>3</v>
@@ -19706,7 +19702,7 @@
       </c>
       <c r="F457" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G457" s="3" t="s">
         <v>20</v>
@@ -19715,7 +19711,7 @@
         <v>16.46</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J457" s="3">
         <v>4</v>
@@ -19748,7 +19744,7 @@
       </c>
       <c r="F458" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G458" s="3" t="s">
         <v>9</v>
@@ -19757,7 +19753,7 @@
         <v>32.93</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J458" s="3">
         <v>1</v>
@@ -19790,7 +19786,7 @@
       </c>
       <c r="F459" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G459" s="3" t="s">
         <v>9</v>
@@ -19799,7 +19795,7 @@
         <v>32.93</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J459" s="3">
         <v>2</v>
@@ -19832,7 +19828,7 @@
       </c>
       <c r="F460" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G460" s="3" t="s">
         <v>9</v>
@@ -19841,7 +19837,7 @@
         <v>32.93</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J460" s="3">
         <v>3</v>
@@ -19874,7 +19870,7 @@
       </c>
       <c r="F461" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G461" s="3" t="s">
         <v>9</v>
@@ -19883,7 +19879,7 @@
         <v>32.93</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J461" s="3">
         <v>4</v>
@@ -19916,7 +19912,7 @@
       </c>
       <c r="F462" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G462" s="3" t="s">
         <v>10</v>
@@ -19925,7 +19921,7 @@
         <v>65.86</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J462" s="3">
         <v>1</v>
@@ -19958,7 +19954,7 @@
       </c>
       <c r="F463" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G463" s="3" t="s">
         <v>10</v>
@@ -19967,7 +19963,7 @@
         <v>65.86</v>
       </c>
       <c r="I463" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J463" s="3">
         <v>2</v>
@@ -20000,7 +19996,7 @@
       </c>
       <c r="F464" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G464" s="3" t="s">
         <v>10</v>
@@ -20009,7 +20005,7 @@
         <v>65.86</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J464" s="3">
         <v>3</v>
@@ -20042,7 +20038,7 @@
       </c>
       <c r="F465" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G465" s="3" t="s">
         <v>10</v>
@@ -20051,7 +20047,7 @@
         <v>65.86</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J465" s="3">
         <v>4</v>
@@ -20084,7 +20080,7 @@
       </c>
       <c r="F466" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G466" s="3" t="s">
         <v>11</v>
@@ -20093,7 +20089,7 @@
         <v>131.72</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J466" s="3">
         <v>1</v>
@@ -20126,7 +20122,7 @@
       </c>
       <c r="F467" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G467" s="3" t="s">
         <v>11</v>
@@ -20135,7 +20131,7 @@
         <v>131.72</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J467" s="3">
         <v>2</v>
@@ -20168,7 +20164,7 @@
       </c>
       <c r="F468" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G468" s="3" t="s">
         <v>11</v>
@@ -20177,7 +20173,7 @@
         <v>131.72</v>
       </c>
       <c r="I468" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J468" s="3">
         <v>3</v>
@@ -20210,7 +20206,7 @@
       </c>
       <c r="F469" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G469" s="3" t="s">
         <v>11</v>
@@ -20219,7 +20215,7 @@
         <v>131.72</v>
       </c>
       <c r="I469" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J469" s="3">
         <v>4</v>
@@ -20252,7 +20248,7 @@
       </c>
       <c r="F470" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G470" s="3" t="s">
         <v>12</v>
@@ -20261,7 +20257,7 @@
         <v>263.43</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J470" s="3">
         <v>1</v>
@@ -20294,7 +20290,7 @@
       </c>
       <c r="F471" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G471" s="3" t="s">
         <v>12</v>
@@ -20303,7 +20299,7 @@
         <v>263.43</v>
       </c>
       <c r="I471" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J471" s="3">
         <v>2</v>
@@ -20336,7 +20332,7 @@
       </c>
       <c r="F472" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G472" s="3" t="s">
         <v>12</v>
@@ -20345,7 +20341,7 @@
         <v>263.43</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J472" s="3">
         <v>3</v>
@@ -20378,7 +20374,7 @@
       </c>
       <c r="F473" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G473" s="3" t="s">
         <v>12</v>
@@ -20387,7 +20383,7 @@
         <v>263.43</v>
       </c>
       <c r="I473" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J473" s="3">
         <v>4</v>
@@ -20420,7 +20416,7 @@
       </c>
       <c r="F474" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G474" s="3" t="s">
         <v>13</v>
@@ -20429,7 +20425,7 @@
         <v>526.86</v>
       </c>
       <c r="I474" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J474" s="3">
         <v>1</v>
@@ -20462,7 +20458,7 @@
       </c>
       <c r="F475" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G475" s="3" t="s">
         <v>13</v>
@@ -20471,7 +20467,7 @@
         <v>526.86</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J475" s="3">
         <v>2</v>
@@ -20504,7 +20500,7 @@
       </c>
       <c r="F476" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G476" s="3" t="s">
         <v>13</v>
@@ -20513,7 +20509,7 @@
         <v>526.86</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J476" s="3">
         <v>3</v>
@@ -20546,7 +20542,7 @@
       </c>
       <c r="F477" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G477" s="3" t="s">
         <v>13</v>
@@ -20555,7 +20551,7 @@
         <v>526.86</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J477" s="3">
         <v>4</v>
@@ -20588,7 +20584,7 @@
       </c>
       <c r="F478" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G478" s="3" t="s">
         <v>14</v>
@@ -20597,7 +20593,7 @@
         <v>1053.73</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J478" s="3">
         <v>1</v>
@@ -20630,7 +20626,7 @@
       </c>
       <c r="F479" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G479" s="3" t="s">
         <v>14</v>
@@ -20639,7 +20635,7 @@
         <v>1053.73</v>
       </c>
       <c r="I479" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J479" s="3">
         <v>2</v>
@@ -20672,7 +20668,7 @@
       </c>
       <c r="F480" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G480" s="3" t="s">
         <v>14</v>
@@ -20681,7 +20677,7 @@
         <v>1053.73</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J480" s="3">
         <v>3</v>
@@ -20714,7 +20710,7 @@
       </c>
       <c r="F481" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+P450+elevated</v>
+        <v>A101+fome+P450+increased</v>
       </c>
       <c r="G481" s="3" t="s">
         <v>14</v>
@@ -20723,7 +20719,7 @@
         <v>1053.73</v>
       </c>
       <c r="I481" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J481" s="3">
         <v>4</v>
@@ -20756,7 +20752,7 @@
       </c>
       <c r="F482" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G482" s="3" t="s">
         <v>8</v>
@@ -20765,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="I482" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J482" s="3">
         <v>1</v>
@@ -20798,7 +20794,7 @@
       </c>
       <c r="F483" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G483" s="3" t="s">
         <v>8</v>
@@ -20807,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J483" s="3">
         <v>2</v>
@@ -20840,7 +20836,7 @@
       </c>
       <c r="F484" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G484" s="3" t="s">
         <v>8</v>
@@ -20849,7 +20845,7 @@
         <v>0</v>
       </c>
       <c r="I484" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J484" s="3">
         <v>3</v>
@@ -20882,7 +20878,7 @@
       </c>
       <c r="F485" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G485" s="3" t="s">
         <v>8</v>
@@ -20891,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="I485" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J485" s="3">
         <v>4</v>
@@ -20924,7 +20920,7 @@
       </c>
       <c r="F486" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G486" s="3" t="s">
         <v>18</v>
@@ -20933,7 +20929,7 @@
         <v>4.12</v>
       </c>
       <c r="I486" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J486" s="3">
         <v>1</v>
@@ -20966,7 +20962,7 @@
       </c>
       <c r="F487" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>18</v>
@@ -20975,7 +20971,7 @@
         <v>4.12</v>
       </c>
       <c r="I487" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J487" s="3">
         <v>2</v>
@@ -21008,7 +21004,7 @@
       </c>
       <c r="F488" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G488" s="3" t="s">
         <v>18</v>
@@ -21017,7 +21013,7 @@
         <v>4.12</v>
       </c>
       <c r="I488" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J488" s="3">
         <v>3</v>
@@ -21050,7 +21046,7 @@
       </c>
       <c r="F489" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G489" s="3" t="s">
         <v>18</v>
@@ -21059,7 +21055,7 @@
         <v>4.12</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J489" s="3">
         <v>4</v>
@@ -21092,7 +21088,7 @@
       </c>
       <c r="F490" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G490" s="3" t="s">
         <v>19</v>
@@ -21101,7 +21097,7 @@
         <v>8.23</v>
       </c>
       <c r="I490" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J490" s="3">
         <v>1</v>
@@ -21134,7 +21130,7 @@
       </c>
       <c r="F491" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G491" s="3" t="s">
         <v>19</v>
@@ -21143,7 +21139,7 @@
         <v>8.23</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J491" s="3">
         <v>2</v>
@@ -21176,7 +21172,7 @@
       </c>
       <c r="F492" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G492" s="3" t="s">
         <v>19</v>
@@ -21185,7 +21181,7 @@
         <v>8.23</v>
       </c>
       <c r="I492" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J492" s="3">
         <v>3</v>
@@ -21218,7 +21214,7 @@
       </c>
       <c r="F493" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G493" s="3" t="s">
         <v>19</v>
@@ -21227,7 +21223,7 @@
         <v>8.23</v>
       </c>
       <c r="I493" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J493" s="3">
         <v>4</v>
@@ -21260,7 +21256,7 @@
       </c>
       <c r="F494" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>20</v>
@@ -21269,7 +21265,7 @@
         <v>16.46</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J494" s="3">
         <v>1</v>
@@ -21302,7 +21298,7 @@
       </c>
       <c r="F495" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G495" s="3" t="s">
         <v>20</v>
@@ -21311,7 +21307,7 @@
         <v>16.46</v>
       </c>
       <c r="I495" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J495" s="3">
         <v>2</v>
@@ -21344,7 +21340,7 @@
       </c>
       <c r="F496" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G496" s="3" t="s">
         <v>20</v>
@@ -21353,7 +21349,7 @@
         <v>16.46</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J496" s="3">
         <v>3</v>
@@ -21386,7 +21382,7 @@
       </c>
       <c r="F497" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>20</v>
@@ -21395,7 +21391,7 @@
         <v>16.46</v>
       </c>
       <c r="I497" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J497" s="3">
         <v>4</v>
@@ -21428,7 +21424,7 @@
       </c>
       <c r="F498" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G498" s="3" t="s">
         <v>9</v>
@@ -21437,7 +21433,7 @@
         <v>32.93</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J498" s="3">
         <v>1</v>
@@ -21470,7 +21466,7 @@
       </c>
       <c r="F499" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G499" s="3" t="s">
         <v>9</v>
@@ -21479,7 +21475,7 @@
         <v>32.93</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J499" s="3">
         <v>2</v>
@@ -21512,7 +21508,7 @@
       </c>
       <c r="F500" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G500" s="3" t="s">
         <v>9</v>
@@ -21521,7 +21517,7 @@
         <v>32.93</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J500" s="3">
         <v>3</v>
@@ -21554,7 +21550,7 @@
       </c>
       <c r="F501" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G501" s="3" t="s">
         <v>9</v>
@@ -21563,7 +21559,7 @@
         <v>32.93</v>
       </c>
       <c r="I501" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J501" s="3">
         <v>4</v>
@@ -21596,7 +21592,7 @@
       </c>
       <c r="F502" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G502" s="3" t="s">
         <v>10</v>
@@ -21605,7 +21601,7 @@
         <v>65.86</v>
       </c>
       <c r="I502" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J502" s="3">
         <v>1</v>
@@ -21638,7 +21634,7 @@
       </c>
       <c r="F503" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G503" s="3" t="s">
         <v>10</v>
@@ -21647,7 +21643,7 @@
         <v>65.86</v>
       </c>
       <c r="I503" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J503" s="3">
         <v>2</v>
@@ -21680,7 +21676,7 @@
       </c>
       <c r="F504" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G504" s="3" t="s">
         <v>10</v>
@@ -21689,7 +21685,7 @@
         <v>65.86</v>
       </c>
       <c r="I504" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J504" s="3">
         <v>3</v>
@@ -21722,7 +21718,7 @@
       </c>
       <c r="F505" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G505" s="3" t="s">
         <v>10</v>
@@ -21731,7 +21727,7 @@
         <v>65.86</v>
       </c>
       <c r="I505" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J505" s="3">
         <v>4</v>
@@ -21764,7 +21760,7 @@
       </c>
       <c r="F506" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G506" s="3" t="s">
         <v>11</v>
@@ -21773,7 +21769,7 @@
         <v>131.72</v>
       </c>
       <c r="I506" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J506" s="3">
         <v>1</v>
@@ -21806,7 +21802,7 @@
       </c>
       <c r="F507" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G507" s="3" t="s">
         <v>11</v>
@@ -21815,7 +21811,7 @@
         <v>131.72</v>
       </c>
       <c r="I507" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J507" s="3">
         <v>2</v>
@@ -21848,7 +21844,7 @@
       </c>
       <c r="F508" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G508" s="3" t="s">
         <v>11</v>
@@ -21857,7 +21853,7 @@
         <v>131.72</v>
       </c>
       <c r="I508" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J508" s="3">
         <v>3</v>
@@ -21890,7 +21886,7 @@
       </c>
       <c r="F509" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G509" s="3" t="s">
         <v>11</v>
@@ -21899,7 +21895,7 @@
         <v>131.72</v>
       </c>
       <c r="I509" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J509" s="3">
         <v>4</v>
@@ -21932,7 +21928,7 @@
       </c>
       <c r="F510" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G510" s="3" t="s">
         <v>12</v>
@@ -21941,7 +21937,7 @@
         <v>263.43</v>
       </c>
       <c r="I510" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J510" s="3">
         <v>1</v>
@@ -21974,7 +21970,7 @@
       </c>
       <c r="F511" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G511" s="3" t="s">
         <v>12</v>
@@ -21983,7 +21979,7 @@
         <v>263.43</v>
       </c>
       <c r="I511" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J511" s="3">
         <v>2</v>
@@ -22016,7 +22012,7 @@
       </c>
       <c r="F512" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G512" s="3" t="s">
         <v>12</v>
@@ -22025,7 +22021,7 @@
         <v>263.43</v>
       </c>
       <c r="I512" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J512" s="3">
         <v>3</v>
@@ -22058,7 +22054,7 @@
       </c>
       <c r="F513" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G513" s="3" t="s">
         <v>12</v>
@@ -22067,7 +22063,7 @@
         <v>263.43</v>
       </c>
       <c r="I513" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J513" s="3">
         <v>4</v>
@@ -22100,7 +22096,7 @@
       </c>
       <c r="F514" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G514" s="3" t="s">
         <v>13</v>
@@ -22109,7 +22105,7 @@
         <v>526.86</v>
       </c>
       <c r="I514" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J514" s="3">
         <v>1</v>
@@ -22142,7 +22138,7 @@
       </c>
       <c r="F515" s="3" t="str">
         <f t="shared" ref="F515:F578" si="8">_xlfn.CONCAT(D515, "+", E515, "+", I515)</f>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G515" s="3" t="s">
         <v>13</v>
@@ -22151,7 +22147,7 @@
         <v>526.86</v>
       </c>
       <c r="I515" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J515" s="3">
         <v>2</v>
@@ -22184,7 +22180,7 @@
       </c>
       <c r="F516" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G516" s="3" t="s">
         <v>13</v>
@@ -22193,7 +22189,7 @@
         <v>526.86</v>
       </c>
       <c r="I516" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J516" s="3">
         <v>3</v>
@@ -22226,7 +22222,7 @@
       </c>
       <c r="F517" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G517" s="3" t="s">
         <v>13</v>
@@ -22235,7 +22231,7 @@
         <v>526.86</v>
       </c>
       <c r="I517" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J517" s="3">
         <v>4</v>
@@ -22268,7 +22264,7 @@
       </c>
       <c r="F518" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>14</v>
@@ -22277,7 +22273,7 @@
         <v>1053.73</v>
       </c>
       <c r="I518" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J518" s="3">
         <v>1</v>
@@ -22310,7 +22306,7 @@
       </c>
       <c r="F519" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G519" s="3" t="s">
         <v>14</v>
@@ -22319,7 +22315,7 @@
         <v>1053.73</v>
       </c>
       <c r="I519" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J519" s="3">
         <v>2</v>
@@ -22352,7 +22348,7 @@
       </c>
       <c r="F520" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G520" s="3" t="s">
         <v>14</v>
@@ -22361,7 +22357,7 @@
         <v>1053.73</v>
       </c>
       <c r="I520" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J520" s="3">
         <v>3</v>
@@ -22394,7 +22390,7 @@
       </c>
       <c r="F521" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+fome+GST+elevated</v>
+        <v>A101+fome+GST+increased</v>
       </c>
       <c r="G521" s="3" t="s">
         <v>14</v>
@@ -22403,7 +22399,7 @@
         <v>1053.73</v>
       </c>
       <c r="I521" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J521" s="3">
         <v>4</v>
@@ -22445,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="I522" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J522" s="3">
         <v>1</v>
@@ -22487,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="I523" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J523" s="3">
         <v>2</v>
@@ -22529,7 +22525,7 @@
         <v>0</v>
       </c>
       <c r="I524" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J524" s="3">
         <v>3</v>
@@ -22571,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I525" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J525" s="3">
         <v>4</v>
@@ -22613,7 +22609,7 @@
         <v>4.12</v>
       </c>
       <c r="I526" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J526" s="3">
         <v>1</v>
@@ -22655,7 +22651,7 @@
         <v>4.12</v>
       </c>
       <c r="I527" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J527" s="3">
         <v>2</v>
@@ -22697,7 +22693,7 @@
         <v>4.12</v>
       </c>
       <c r="I528" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J528" s="3">
         <v>3</v>
@@ -22739,7 +22735,7 @@
         <v>4.12</v>
       </c>
       <c r="I529" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J529" s="3">
         <v>4</v>
@@ -22781,7 +22777,7 @@
         <v>8.23</v>
       </c>
       <c r="I530" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J530" s="3">
         <v>1</v>
@@ -22823,7 +22819,7 @@
         <v>8.23</v>
       </c>
       <c r="I531" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J531" s="3">
         <v>2</v>
@@ -22865,7 +22861,7 @@
         <v>8.23</v>
       </c>
       <c r="I532" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J532" s="3">
         <v>3</v>
@@ -22907,7 +22903,7 @@
         <v>8.23</v>
       </c>
       <c r="I533" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J533" s="3">
         <v>4</v>
@@ -22949,7 +22945,7 @@
         <v>16.46</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J534" s="3">
         <v>1</v>
@@ -22991,7 +22987,7 @@
         <v>16.46</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J535" s="3">
         <v>2</v>
@@ -23033,7 +23029,7 @@
         <v>16.46</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J536" s="3">
         <v>3</v>
@@ -23075,7 +23071,7 @@
         <v>16.46</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J537" s="3">
         <v>4</v>
@@ -23117,7 +23113,7 @@
         <v>32.93</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J538" s="3">
         <v>1</v>
@@ -23159,7 +23155,7 @@
         <v>32.93</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J539" s="3">
         <v>2</v>
@@ -23201,7 +23197,7 @@
         <v>32.93</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J540" s="3">
         <v>3</v>
@@ -23243,7 +23239,7 @@
         <v>32.93</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J541" s="3">
         <v>4</v>
@@ -23285,7 +23281,7 @@
         <v>65.86</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J542" s="3">
         <v>1</v>
@@ -23327,7 +23323,7 @@
         <v>65.86</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J543" s="3">
         <v>2</v>
@@ -23369,7 +23365,7 @@
         <v>65.86</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J544" s="3">
         <v>3</v>
@@ -23411,7 +23407,7 @@
         <v>65.86</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J545" s="3">
         <v>4</v>
@@ -23453,7 +23449,7 @@
         <v>131.72</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J546" s="3">
         <v>1</v>
@@ -23495,7 +23491,7 @@
         <v>131.72</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J547" s="3">
         <v>2</v>
@@ -23537,7 +23533,7 @@
         <v>131.72</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J548" s="3">
         <v>3</v>
@@ -23579,7 +23575,7 @@
         <v>131.72</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J549" s="3">
         <v>4</v>
@@ -23621,7 +23617,7 @@
         <v>263.43</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J550" s="3">
         <v>1</v>
@@ -23663,7 +23659,7 @@
         <v>263.43</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J551" s="3">
         <v>2</v>
@@ -23705,7 +23701,7 @@
         <v>263.43</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J552" s="3">
         <v>3</v>
@@ -23747,7 +23743,7 @@
         <v>263.43</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J553" s="3">
         <v>4</v>
@@ -23789,7 +23785,7 @@
         <v>526.86</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J554" s="3">
         <v>1</v>
@@ -23831,7 +23827,7 @@
         <v>526.86</v>
       </c>
       <c r="I555" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J555" s="3">
         <v>2</v>
@@ -23873,7 +23869,7 @@
         <v>526.86</v>
       </c>
       <c r="I556" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J556" s="3">
         <v>3</v>
@@ -23915,7 +23911,7 @@
         <v>526.86</v>
       </c>
       <c r="I557" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J557" s="3">
         <v>4</v>
@@ -23957,7 +23953,7 @@
         <v>1053.73</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J558" s="3">
         <v>1</v>
@@ -23999,7 +23995,7 @@
         <v>1053.73</v>
       </c>
       <c r="I559" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J559" s="3">
         <v>2</v>
@@ -24041,7 +24037,7 @@
         <v>1053.73</v>
       </c>
       <c r="I560" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J560" s="3">
         <v>3</v>
@@ -24083,7 +24079,7 @@
         <v>1053.73</v>
       </c>
       <c r="I561" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J561" s="3">
         <v>4</v>
@@ -24125,7 +24121,7 @@
         <v>0</v>
       </c>
       <c r="I562" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J562" s="3">
         <v>1</v>
@@ -24167,7 +24163,7 @@
         <v>0</v>
       </c>
       <c r="I563" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J563" s="3">
         <v>2</v>
@@ -24209,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="I564" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J564" s="3">
         <v>3</v>
@@ -24251,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="I565" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J565" s="3">
         <v>4</v>
@@ -24293,7 +24289,7 @@
         <v>4.12</v>
       </c>
       <c r="I566" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J566" s="3">
         <v>1</v>
@@ -24335,7 +24331,7 @@
         <v>4.12</v>
       </c>
       <c r="I567" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J567" s="3">
         <v>2</v>
@@ -24377,7 +24373,7 @@
         <v>4.12</v>
       </c>
       <c r="I568" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J568" s="3">
         <v>3</v>
@@ -24419,7 +24415,7 @@
         <v>4.12</v>
       </c>
       <c r="I569" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J569" s="3">
         <v>4</v>
@@ -24461,7 +24457,7 @@
         <v>8.23</v>
       </c>
       <c r="I570" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J570" s="3">
         <v>1</v>
@@ -24503,7 +24499,7 @@
         <v>8.23</v>
       </c>
       <c r="I571" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J571" s="3">
         <v>2</v>
@@ -24545,7 +24541,7 @@
         <v>8.23</v>
       </c>
       <c r="I572" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J572" s="3">
         <v>3</v>
@@ -24587,7 +24583,7 @@
         <v>8.23</v>
       </c>
       <c r="I573" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J573" s="3">
         <v>4</v>
@@ -24629,7 +24625,7 @@
         <v>16.46</v>
       </c>
       <c r="I574" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J574" s="3">
         <v>1</v>
@@ -24671,7 +24667,7 @@
         <v>16.46</v>
       </c>
       <c r="I575" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J575" s="3">
         <v>2</v>
@@ -24713,7 +24709,7 @@
         <v>16.46</v>
       </c>
       <c r="I576" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J576" s="3">
         <v>3</v>
@@ -24755,7 +24751,7 @@
         <v>16.46</v>
       </c>
       <c r="I577" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J577" s="3">
         <v>4</v>
@@ -24797,7 +24793,7 @@
         <v>32.93</v>
       </c>
       <c r="I578" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J578" s="3">
         <v>1</v>
@@ -24839,7 +24835,7 @@
         <v>32.93</v>
       </c>
       <c r="I579" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J579" s="3">
         <v>2</v>
@@ -24881,7 +24877,7 @@
         <v>32.93</v>
       </c>
       <c r="I580" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J580" s="3">
         <v>3</v>
@@ -24923,7 +24919,7 @@
         <v>32.93</v>
       </c>
       <c r="I581" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J581" s="3">
         <v>4</v>
@@ -24965,7 +24961,7 @@
         <v>65.86</v>
       </c>
       <c r="I582" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J582" s="3">
         <v>1</v>
@@ -25007,7 +25003,7 @@
         <v>65.86</v>
       </c>
       <c r="I583" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J583" s="3">
         <v>2</v>
@@ -25049,7 +25045,7 @@
         <v>65.86</v>
       </c>
       <c r="I584" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J584" s="3">
         <v>3</v>
@@ -25091,7 +25087,7 @@
         <v>65.86</v>
       </c>
       <c r="I585" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J585" s="3">
         <v>4</v>
@@ -25133,7 +25129,7 @@
         <v>131.72</v>
       </c>
       <c r="I586" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J586" s="3">
         <v>1</v>
@@ -25175,7 +25171,7 @@
         <v>131.72</v>
       </c>
       <c r="I587" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J587" s="3">
         <v>2</v>
@@ -25217,7 +25213,7 @@
         <v>131.72</v>
       </c>
       <c r="I588" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J588" s="3">
         <v>3</v>
@@ -25259,7 +25255,7 @@
         <v>131.72</v>
       </c>
       <c r="I589" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J589" s="3">
         <v>4</v>
@@ -25301,7 +25297,7 @@
         <v>263.43</v>
       </c>
       <c r="I590" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J590" s="3">
         <v>1</v>
@@ -25343,7 +25339,7 @@
         <v>263.43</v>
       </c>
       <c r="I591" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J591" s="3">
         <v>2</v>
@@ -25385,7 +25381,7 @@
         <v>263.43</v>
       </c>
       <c r="I592" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J592" s="3">
         <v>3</v>
@@ -25427,7 +25423,7 @@
         <v>263.43</v>
       </c>
       <c r="I593" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J593" s="3">
         <v>4</v>
@@ -25469,7 +25465,7 @@
         <v>526.86</v>
       </c>
       <c r="I594" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J594" s="3">
         <v>1</v>
@@ -25511,7 +25507,7 @@
         <v>526.86</v>
       </c>
       <c r="I595" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J595" s="3">
         <v>2</v>
@@ -25553,7 +25549,7 @@
         <v>526.86</v>
       </c>
       <c r="I596" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J596" s="3">
         <v>3</v>
@@ -25595,7 +25591,7 @@
         <v>526.86</v>
       </c>
       <c r="I597" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J597" s="3">
         <v>4</v>
@@ -25637,7 +25633,7 @@
         <v>1053.73</v>
       </c>
       <c r="I598" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J598" s="3">
         <v>1</v>
@@ -25679,7 +25675,7 @@
         <v>1053.73</v>
       </c>
       <c r="I599" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J599" s="3">
         <v>2</v>
@@ -25721,7 +25717,7 @@
         <v>1053.73</v>
       </c>
       <c r="I600" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J600" s="3">
         <v>3</v>
@@ -25763,7 +25759,7 @@
         <v>1053.73</v>
       </c>
       <c r="I601" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J601" s="3">
         <v>4</v>
@@ -25805,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="I602" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J602" s="3">
         <v>1</v>
@@ -25847,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="I603" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J603" s="3">
         <v>2</v>
@@ -25889,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I604" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J604" s="3">
         <v>3</v>
@@ -25931,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="I605" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J605" s="3">
         <v>4</v>
@@ -25973,7 +25969,7 @@
         <v>4.12</v>
       </c>
       <c r="I606" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J606" s="3">
         <v>1</v>
@@ -26015,7 +26011,7 @@
         <v>4.12</v>
       </c>
       <c r="I607" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J607" s="3">
         <v>2</v>
@@ -26057,7 +26053,7 @@
         <v>4.12</v>
       </c>
       <c r="I608" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J608" s="3">
         <v>3</v>
@@ -26099,7 +26095,7 @@
         <v>4.12</v>
       </c>
       <c r="I609" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J609" s="3">
         <v>4</v>
@@ -26141,7 +26137,7 @@
         <v>8.23</v>
       </c>
       <c r="I610" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J610" s="3">
         <v>1</v>
@@ -26183,7 +26179,7 @@
         <v>8.23</v>
       </c>
       <c r="I611" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J611" s="3">
         <v>2</v>
@@ -26225,7 +26221,7 @@
         <v>8.23</v>
       </c>
       <c r="I612" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J612" s="3">
         <v>3</v>
@@ -26267,7 +26263,7 @@
         <v>8.23</v>
       </c>
       <c r="I613" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J613" s="3">
         <v>4</v>
@@ -26309,7 +26305,7 @@
         <v>16.46</v>
       </c>
       <c r="I614" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J614" s="3">
         <v>1</v>
@@ -26351,7 +26347,7 @@
         <v>16.46</v>
       </c>
       <c r="I615" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J615" s="3">
         <v>2</v>
@@ -26393,7 +26389,7 @@
         <v>16.46</v>
       </c>
       <c r="I616" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J616" s="3">
         <v>3</v>
@@ -26435,7 +26431,7 @@
         <v>16.46</v>
       </c>
       <c r="I617" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J617" s="3">
         <v>4</v>
@@ -26477,7 +26473,7 @@
         <v>32.93</v>
       </c>
       <c r="I618" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J618" s="3">
         <v>1</v>
@@ -26519,7 +26515,7 @@
         <v>32.93</v>
       </c>
       <c r="I619" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J619" s="3">
         <v>2</v>
@@ -26561,7 +26557,7 @@
         <v>32.93</v>
       </c>
       <c r="I620" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J620" s="3">
         <v>3</v>
@@ -26603,7 +26599,7 @@
         <v>32.93</v>
       </c>
       <c r="I621" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J621" s="3">
         <v>4</v>
@@ -26645,7 +26641,7 @@
         <v>65.86</v>
       </c>
       <c r="I622" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J622" s="3">
         <v>1</v>
@@ -26687,7 +26683,7 @@
         <v>65.86</v>
       </c>
       <c r="I623" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J623" s="3">
         <v>2</v>
@@ -26729,7 +26725,7 @@
         <v>65.86</v>
       </c>
       <c r="I624" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J624" s="3">
         <v>3</v>
@@ -26771,7 +26767,7 @@
         <v>65.86</v>
       </c>
       <c r="I625" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J625" s="3">
         <v>4</v>
@@ -26813,7 +26809,7 @@
         <v>131.72</v>
       </c>
       <c r="I626" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J626" s="3">
         <v>1</v>
@@ -26855,7 +26851,7 @@
         <v>131.72</v>
       </c>
       <c r="I627" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J627" s="3">
         <v>2</v>
@@ -26897,7 +26893,7 @@
         <v>131.72</v>
       </c>
       <c r="I628" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J628" s="3">
         <v>3</v>
@@ -26939,7 +26935,7 @@
         <v>131.72</v>
       </c>
       <c r="I629" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J629" s="3">
         <v>4</v>
@@ -26981,7 +26977,7 @@
         <v>263.43</v>
       </c>
       <c r="I630" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J630" s="3">
         <v>1</v>
@@ -27023,7 +27019,7 @@
         <v>263.43</v>
       </c>
       <c r="I631" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J631" s="3">
         <v>2</v>
@@ -27065,7 +27061,7 @@
         <v>263.43</v>
       </c>
       <c r="I632" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J632" s="3">
         <v>3</v>
@@ -27107,7 +27103,7 @@
         <v>263.43</v>
       </c>
       <c r="I633" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J633" s="3">
         <v>4</v>
@@ -27149,7 +27145,7 @@
         <v>526.86</v>
       </c>
       <c r="I634" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J634" s="3">
         <v>1</v>
@@ -27191,7 +27187,7 @@
         <v>526.86</v>
       </c>
       <c r="I635" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J635" s="3">
         <v>2</v>
@@ -27233,7 +27229,7 @@
         <v>526.86</v>
       </c>
       <c r="I636" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J636" s="3">
         <v>3</v>
@@ -27275,7 +27271,7 @@
         <v>526.86</v>
       </c>
       <c r="I637" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J637" s="3">
         <v>4</v>
@@ -27317,7 +27313,7 @@
         <v>1053.73</v>
       </c>
       <c r="I638" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J638" s="3">
         <v>1</v>
@@ -27359,7 +27355,7 @@
         <v>1053.73</v>
       </c>
       <c r="I639" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J639" s="3">
         <v>2</v>
@@ -27401,7 +27397,7 @@
         <v>1053.73</v>
       </c>
       <c r="I640" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J640" s="3">
         <v>3</v>
@@ -27443,7 +27439,7 @@
         <v>1053.73</v>
       </c>
       <c r="I641" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J641" s="3">
         <v>4</v>
